--- a/reports/merged_eval.xlsx
+++ b/reports/merged_eval.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Evaluation" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Evaluation" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -536,7 +536,11 @@
       <c r="L2" t="b">
         <v>0</v>
       </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>data/receipts/e68306cae7db4e1f8dda02e7e9f498f3.json</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -579,7 +583,11 @@
       <c r="L3" t="b">
         <v>0</v>
       </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>data/receipts/db3f5d3708e842949d7e8849d2b3e950.json</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -620,7 +628,11 @@
       <c r="L4" t="b">
         <v>0</v>
       </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>data/receipts/1cb6d329d8394840828bdf6a161da461.json</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -659,7 +671,11 @@
       <c r="L5" t="b">
         <v>0</v>
       </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>data/receipts/3cce2b8995b14ee48afc89674058e48e.json</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -706,7 +722,11 @@
       <c r="L6" t="b">
         <v>0</v>
       </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>data/receipts/ae60476ee6b64eff87b3beb108f63dff.json</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -747,7 +767,11 @@
       <c r="L7" t="b">
         <v>0</v>
       </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>data/receipts/8499fd6b9c7e4314ba64d1efb43a3336.json</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -788,7 +812,11 @@
       <c r="L8" t="b">
         <v>0</v>
       </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>data/receipts/e573439b7707420992ebb4c1d0fd0771.json</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -829,7 +857,11 @@
       <c r="L9" t="b">
         <v>0</v>
       </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>data/receipts/4f4bfd3ed2334a15876191099d376294.json</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -876,7 +908,11 @@
       <c r="L10" t="b">
         <v>0</v>
       </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>data/receipts/92b749ef170a412886d2e56d87cf4e25.json</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -917,7 +953,11 @@
       <c r="L11" t="b">
         <v>0</v>
       </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>data/receipts/5345dff6968a47c3894b3b26f75f1d29.json</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -958,7 +998,11 @@
       <c r="L12" t="b">
         <v>0</v>
       </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>data/receipts/67cd900e5dce4914abff549e0c25d156.json</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1003,7 +1047,11 @@
       <c r="L13" t="b">
         <v>0</v>
       </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>data/receipts/f4398a008bfe4dca8a8de683dc3d6b62.json</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1048,7 +1096,11 @@
       <c r="L14" t="b">
         <v>0</v>
       </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>data/receipts/52373cca78fc44e78d6b3808539bd9e9.json</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1095,7 +1147,11 @@
       <c r="L15" t="b">
         <v>0</v>
       </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>data/receipts/0514c3033c854ee6992e6014124aba2f.json</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1136,7 +1192,11 @@
       <c r="L16" t="b">
         <v>0</v>
       </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>data/receipts/de97aa39d4b44845922aac5e720d973a.json</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1177,7 +1237,11 @@
       <c r="L17" t="b">
         <v>0</v>
       </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>data/receipts/391a97ffd0314a8a870f2093bc91ff66.json</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1218,7 +1282,11 @@
       <c r="L18" t="b">
         <v>0</v>
       </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>data/receipts/ce1c2cd4c4b541a785f065f1027b44a8.json</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1259,7 +1327,11 @@
       <c r="L19" t="b">
         <v>0</v>
       </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>data/receipts/40b374ea654c4fb7a3a3a62da563e597.json</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1300,7 +1372,11 @@
       <c r="L20" t="b">
         <v>0</v>
       </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>data/receipts/36ff4f9c0e1d45808a28ab26e45e52d3.json</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1339,7 +1415,11 @@
       <c r="L21" t="b">
         <v>0</v>
       </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>data/receipts/8c53818a8bb64a0c97fe3eceddc07437.json</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1378,7 +1458,11 @@
       <c r="L22" t="b">
         <v>0</v>
       </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>data/receipts/056675cbf490419f9dd8c868087ae94f.json</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1417,7 +1501,11 @@
       <c r="L23" t="b">
         <v>0</v>
       </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>data/receipts/36a4945eb4dc40119f2cbab06330f337.json</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1456,7 +1544,11 @@
       <c r="L24" t="b">
         <v>0</v>
       </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>data/receipts/5471b591bf3c4ee7b2fe861c90c3fb6a.json</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1495,7 +1587,11 @@
       <c r="L25" t="b">
         <v>0</v>
       </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>data/receipts/119f779567af4fc4b27ef7c3482956f8.json</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1534,7 +1630,11 @@
       <c r="L26" t="b">
         <v>0</v>
       </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>data/receipts/4ee9ec2016f84e98bc5f1a481c30c994.json</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1573,7 +1673,11 @@
       <c r="L27" t="b">
         <v>0</v>
       </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>data/receipts/bf2c9ae2dcca4c09901ec94a0c1daebb.json</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1612,7 +1716,11 @@
       <c r="L28" t="b">
         <v>0</v>
       </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>data/receipts/a55368d0bbe8487eaacab0c45820007e.json</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1651,7 +1759,11 @@
       <c r="L29" t="b">
         <v>0</v>
       </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>data/receipts/01ccf7c8010f4473970ca7ff1b836d5f.json</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1690,7 +1802,11 @@
       <c r="L30" t="b">
         <v>0</v>
       </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>data/receipts/97154265aa344382bf90c8e460505d16.json</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1729,7 +1845,11 @@
       <c r="L31" t="b">
         <v>0</v>
       </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>data/receipts/99c77ac0c7494d08a7f98bf774f8c792.json</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1768,7 +1888,11 @@
       <c r="L32" t="b">
         <v>0</v>
       </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>data/receipts/89df17cd88014dc7b9096c2ea119f84f.json</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1807,7 +1931,11 @@
       <c r="L33" t="b">
         <v>0</v>
       </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>data/receipts/06f2ed0678a34abe8ad6a46e2653297e.json</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1846,7 +1974,11 @@
       <c r="L34" t="b">
         <v>0</v>
       </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>data/receipts/1528fbfe57994cdbb0acf869c4e57e7b.json</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1885,7 +2017,11 @@
       <c r="L35" t="b">
         <v>0</v>
       </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>data/receipts/15943e1cddcb46a18cccb481f63ac3c6.json</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1924,7 +2060,11 @@
       <c r="L36" t="b">
         <v>0</v>
       </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>data/receipts/091983b11f204ba48ab08e74d3682581.json</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1963,7 +2103,11 @@
       <c r="L37" t="b">
         <v>0</v>
       </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>data/receipts/7e37b25a65c94f3a9c76135fbb736d9c.json</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2002,7 +2146,11 @@
       <c r="L38" t="b">
         <v>0</v>
       </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>data/receipts/2c363b61919e45f6a92e4d7ba4e8a9a6.json</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2041,7 +2189,11 @@
       <c r="L39" t="b">
         <v>0</v>
       </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>data/receipts/715936e75401498594bf2c7986c8bcad.json</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2080,7 +2232,11 @@
       <c r="L40" t="b">
         <v>0</v>
       </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>data/receipts/63686f96eadd4c0f93f310ff6db332e8.json</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2123,7 +2279,11 @@
       <c r="L41" t="b">
         <v>0</v>
       </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>data/receipts/4287de32b57449ce9bf27fe31e30d46b.json</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2162,7 +2322,11 @@
       <c r="L42" t="b">
         <v>0</v>
       </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>data/receipts/7a8d11a3bcb3495388d679d50106cfc4.json</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2209,7 +2373,11 @@
       <c r="L43" t="b">
         <v>0</v>
       </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>data/receipts/0a00e8d181f34b73b8ab1857d7679524.json</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2248,7 +2416,11 @@
       <c r="L44" t="b">
         <v>0</v>
       </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>data/receipts/0cfdd30b4b574bc0af761680ea372b9b.json</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2295,7 +2467,11 @@
       <c r="L45" t="b">
         <v>0</v>
       </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>data/receipts/bd0f91d7d8ef4432a3a674d1f4a01583.json</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2334,7 +2510,11 @@
       <c r="L46" t="b">
         <v>0</v>
       </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>data/receipts/9e3f5a29cadd4ea985935cad580d317c.json</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2377,7 +2557,11 @@
       <c r="L47" t="b">
         <v>0</v>
       </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>data/receipts/056aca80391d4e90aaafbe3c9ddd3a7b.json</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2416,7 +2600,11 @@
       <c r="L48" t="b">
         <v>0</v>
       </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>data/receipts/f2f3eae828594a0e8030336003f029a7.json</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2455,7 +2643,11 @@
       <c r="L49" t="b">
         <v>0</v>
       </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>data/receipts/0b3404094ff2412baad2d241e8578ad4.json</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2504,7 +2696,11 @@
       <c r="L50" t="b">
         <v>0</v>
       </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>data/receipts/1961eaf590dc4fba99592b75e7829d45.json</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2543,7 +2739,11 @@
       <c r="L51" t="b">
         <v>0</v>
       </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>data/receipts/402b6a57acc04d0986b75c2ac8b36f6d.json</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2582,7 +2782,11 @@
       <c r="L52" t="b">
         <v>0</v>
       </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>data/receipts/f6c9ed1abbf84d2493892934854acd2e.json</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2621,7 +2825,11 @@
       <c r="L53" t="b">
         <v>0</v>
       </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>data/receipts/370d08031e054a51a2a52d78cc0b2390.json</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2660,7 +2868,11 @@
       <c r="L54" t="b">
         <v>0</v>
       </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>data/receipts/c988376563054d3783ab34355d392a22.json</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2699,7 +2911,11 @@
       <c r="L55" t="b">
         <v>0</v>
       </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>data/receipts/c08ed4aa63544d5e806b95bcc046a353.json</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2740,7 +2956,11 @@
       <c r="L56" t="b">
         <v>0</v>
       </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>data/receipts/09d1034e87e54a988f0b5f7259239eff.json</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2779,7 +2999,11 @@
       <c r="L57" t="b">
         <v>0</v>
       </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>data/receipts/27b8c91cfdec4bb0bc61745649437a44.json</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2828,7 +3052,11 @@
       <c r="L58" t="b">
         <v>0</v>
       </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>data/receipts/1b13838c653a4af09e2ae6090ee00108.json</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2879,7 +3107,11 @@
       <c r="L59" t="b">
         <v>0</v>
       </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>data/receipts/ee7a6c9faecf4ae5a254bdde21873a66.json</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2928,7 +3160,11 @@
       <c r="L60" t="b">
         <v>0</v>
       </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>data/receipts/0edac18bbd1e439292dc955168cae6be.json</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="B61" t="inlineStr">
@@ -2971,7 +3207,11 @@
       <c r="L61" t="b">
         <v>0</v>
       </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>data/receipts/20ebba65723141088592c1ec48338aac.json</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="B62" t="inlineStr">
@@ -3014,7 +3254,11 @@
       <c r="L62" t="b">
         <v>0</v>
       </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>data/receipts/cb25a17bf79b4a219e6dd521a330fc5d.json</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="B63" t="inlineStr">
@@ -3057,7 +3301,11 @@
       <c r="L63" t="b">
         <v>0</v>
       </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>data/receipts/f3e73d17d67b4fe8b6ea75a2714e12f6.json</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="B64" t="inlineStr">
@@ -3100,7 +3348,11 @@
       <c r="L64" t="b">
         <v>0</v>
       </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>data/receipts/ed64b66680ba4a3ea342d30d12005148.json</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="B65" t="inlineStr">
@@ -3143,7 +3395,11 @@
       <c r="L65" t="b">
         <v>0</v>
       </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>data/receipts/1db714401054498ab63605f8735515e2.json</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="B66" t="inlineStr">
@@ -3186,7 +3442,11 @@
       <c r="L66" t="b">
         <v>0</v>
       </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>data/receipts/9ceeb47ed8624e1fa209c2b90f977c3f.json</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="B67" t="inlineStr">
@@ -3229,7 +3489,11 @@
       <c r="L67" t="b">
         <v>0</v>
       </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>data/receipts/d4257eb5e12d473f8899bcaba3f9c7d9.json</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="B68" t="inlineStr">
@@ -3272,7 +3536,11 @@
       <c r="L68" t="b">
         <v>0</v>
       </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>data/receipts/ade4f5604a914dfe9b5fb1f79210bea1.json</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="B69" t="inlineStr">
@@ -3319,7 +3587,11 @@
       <c r="L69" t="b">
         <v>0</v>
       </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>data/receipts/2327adfd44c14376a7c99c99421e4a07.json</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="B70" t="inlineStr">
@@ -3349,7 +3621,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>&lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt; &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt; &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt;, &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt;’s &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt;?</t>
+          <t>[[[ID_NUMBER]]] [[[ID_NUMBER]]] [[[ID_NUMBER]]], [[[ID_NUMBER]]]’s [[[ID_NUMBER]]]?</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -3362,7 +3634,11 @@
       <c r="L70" t="b">
         <v>0</v>
       </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>data/receipts/9ee26bdd63074c60a4b87b11c5533647.json</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="B71" t="inlineStr">
@@ -3407,7 +3683,11 @@
       <c r="L71" t="b">
         <v>0</v>
       </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>data/receipts/96b4f6d46ea04558a9129032993c8c7e.json</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="B72" t="inlineStr">
@@ -3456,7 +3736,11 @@
       <c r="L72" t="b">
         <v>0</v>
       </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>data/receipts/206c2fab282d4df6ad769e77ce9f690e.json</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="B73" t="inlineStr">
@@ -3499,7 +3783,11 @@
       <c r="L73" t="b">
         <v>0</v>
       </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>data/receipts/da1e4c78f9694038b4c9f57abbdd04ec.json</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="B74" t="inlineStr">
@@ -3542,7 +3830,11 @@
       <c r="L74" t="b">
         <v>0</v>
       </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>data/receipts/69f13ed21525489188fec69fc47e66f0.json</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="B75" t="inlineStr">
@@ -3588,7 +3880,11 @@
       <c r="L75" t="b">
         <v>0</v>
       </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>data/receipts/7627bd84e7a24d2380a9ee09f7021838.json</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="B76" t="inlineStr">
@@ -3631,7 +3927,11 @@
       <c r="L76" t="b">
         <v>0</v>
       </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>data/receipts/f89e397ba96446aca928e6f59132433e.json</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="B77" t="inlineStr">
@@ -3674,7 +3974,11 @@
       <c r="L77" t="b">
         <v>0</v>
       </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>data/receipts/e3bd21da1c8443adb3ce26d7bc1113e6.json</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="B78" t="inlineStr">
@@ -3717,7 +4021,11 @@
       <c r="L78" t="b">
         <v>0</v>
       </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>data/receipts/f8435442da374adeb02de2d01a8893b6.json</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="B79" t="inlineStr">
@@ -3747,7 +4055,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>&lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt; &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt;’s &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt; &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt;.</t>
+          <t>[[[ID_NUMBER]]] [[[ID_NUMBER]]]’s [[[ID_NUMBER]]] [[[ID_NUMBER]]].</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
@@ -3760,7 +4068,11 @@
       <c r="L79" t="b">
         <v>0</v>
       </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>data/receipts/7e7320d782e04fe1bbb3e0b9540a404e.json</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="B80" t="inlineStr">
@@ -3803,7 +4115,11 @@
       <c r="L80" t="b">
         <v>0</v>
       </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>data/receipts/2c89016a43e245a4bef268125d4f9f29.json</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3849,7 +4165,11 @@
       <c r="L81" t="b">
         <v>0</v>
       </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>data/receipts/ad81d7832066416fba7e0ec9d1da07fa.json</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3890,7 +4210,11 @@
       <c r="L82" t="b">
         <v>0</v>
       </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>data/receipts/0233a349732542fe81cc5d316f4081b0.json</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3931,7 +4255,11 @@
       <c r="L83" t="b">
         <v>0</v>
       </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>data/receipts/7fb3de474cd84d9095dd55cb3a05a4a9.json</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3973,7 +4301,11 @@
       <c r="L84" t="b">
         <v>0</v>
       </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>data/receipts/602ee29ab9584584a0a41c27b51a0dfd.json</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -4012,7 +4344,11 @@
       <c r="L85" t="b">
         <v>0</v>
       </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>data/receipts/1d3907de2a004e918747b6ef039a8333.json</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -4053,7 +4389,11 @@
       <c r="L86" t="b">
         <v>0</v>
       </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>data/receipts/11e491e049b044ae9a8b5451c9b3cfac.json</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -4092,7 +4432,11 @@
       <c r="L87" t="b">
         <v>0</v>
       </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>data/receipts/216a3822b2054d66b5494722088341af.json</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -4131,7 +4475,11 @@
       <c r="L88" t="b">
         <v>0</v>
       </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>data/receipts/8031f566c4c84933b1162c1008737497.json</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -4176,7 +4524,11 @@
       <c r="L89" t="b">
         <v>0</v>
       </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>data/receipts/9f3fc0481f44441d837242a43c75d277.json</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -4221,7 +4573,11 @@
       <c r="L90" t="b">
         <v>0</v>
       </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>data/receipts/7a074e4ba923434f9550605f3003ceed.json</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -4266,7 +4622,11 @@
       <c r="L91" t="b">
         <v>0</v>
       </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>data/receipts/fbe96ace91634974a3d3096c75d53bb5.json</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -4310,7 +4670,11 @@
       <c r="L92" t="b">
         <v>0</v>
       </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>data/receipts/a0db0b0b6ab842b0856f248467074c0b.json</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -4358,7 +4722,11 @@
       <c r="L93" t="b">
         <v>0</v>
       </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>data/receipts/76515108c89b470aa21b55a20665e7ad.json</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -4405,7 +4773,11 @@
       <c r="L94" t="b">
         <v>0</v>
       </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>data/receipts/3bd068a38e1f4c35a6152133f2162a09.json</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -4452,7 +4824,11 @@
       <c r="L95" t="b">
         <v>0</v>
       </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>data/receipts/a76a30519f2f4f7fa22ff4bf5929b45d.json</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -4493,7 +4869,11 @@
       <c r="L96" t="b">
         <v>0</v>
       </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>data/receipts/7a9ff1d836e7421199e12cd3b9874dd8.json</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -4534,7 +4914,11 @@
       <c r="L97" t="b">
         <v>0</v>
       </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>data/receipts/1e5da7aea29341b3ab26870ed5649782.json</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -4575,7 +4959,11 @@
       <c r="L98" t="b">
         <v>0</v>
       </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>data/receipts/fdd2891a451041a58abd8f15a1641d6c.json</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -4616,7 +5004,11 @@
       <c r="L99" t="b">
         <v>0</v>
       </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>data/receipts/854d9161cbc44a2391d6c9c5df9394b2.json</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -4661,7 +5053,11 @@
       <c r="L100" t="b">
         <v>0</v>
       </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>data/receipts/f29a850c3ce042a5ba7eedf7fe17a627.json</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -4700,7 +5096,11 @@
       <c r="L101" t="b">
         <v>0</v>
       </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>data/receipts/20c6738254894334adbd1d53abbbdac5.json</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -4741,7 +5141,11 @@
       <c r="L102" t="b">
         <v>0</v>
       </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>data/receipts/c2aab9dc25bb4433bc5931b55f892d3f.json</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -4780,7 +5184,11 @@
       <c r="L103" t="b">
         <v>0</v>
       </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>data/receipts/7918608edc034f3e8b93bdcb62ca9192.json</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -4819,7 +5227,11 @@
       <c r="L104" t="b">
         <v>0</v>
       </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>data/receipts/9a1eedc9ca594254842c2814fb977728.json</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -4860,7 +5272,11 @@
       <c r="L105" t="b">
         <v>0</v>
       </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>data/receipts/4423ca1004cd49bb976317c49051e557.json</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -4899,7 +5315,11 @@
       <c r="L106" t="b">
         <v>0</v>
       </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>data/receipts/abeeed96ed5346c4aa39ec675ed20ef8.json</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -4946,7 +5366,11 @@
       <c r="L107" t="b">
         <v>0</v>
       </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>data/receipts/50029f36eb604b2f98d208b8f4009a8b.json</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -4987,7 +5411,11 @@
       <c r="L108" t="b">
         <v>0</v>
       </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>data/receipts/d95fe9500c5a4d74a024a5cdc7be174f.json</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -5028,7 +5456,11 @@
       <c r="L109" t="b">
         <v>0</v>
       </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>data/receipts/8291030865b54daba1ee76489d6bf6b5.json</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -5067,7 +5499,11 @@
       <c r="L110" t="b">
         <v>0</v>
       </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>data/receipts/a42ca4c559b349568936374dbad6adbb.json</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -5108,7 +5544,11 @@
       <c r="L111" t="b">
         <v>0</v>
       </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>data/receipts/bf8ea240507b4c0fa7ca7f0a6d10e6e3.json</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -5153,7 +5593,11 @@
       <c r="L112" t="b">
         <v>0</v>
       </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>data/receipts/502e3a74c8974a219c0ad067e9d1d766.json</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -5192,7 +5636,11 @@
       <c r="L113" t="b">
         <v>0</v>
       </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>data/receipts/e65bc72bbf284b2e938cf18299274399.json</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -5235,7 +5683,11 @@
       <c r="L114" t="b">
         <v>0</v>
       </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>data/receipts/e5183e510f8e44868ecb6e87bc7b0e70.json</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -5276,7 +5728,11 @@
       <c r="L115" t="b">
         <v>0</v>
       </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>data/receipts/5c074c8644d94350b117401e54a44e13.json</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -5323,7 +5779,11 @@
       <c r="L116" t="b">
         <v>0</v>
       </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>data/receipts/62933dd174624832b317657a6bd9891a.json</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -5370,7 +5830,11 @@
       <c r="L117" t="b">
         <v>0</v>
       </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>data/receipts/b2585b5575574e8ab5c79cf4ebdb0313.json</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -5411,7 +5875,11 @@
       <c r="L118" t="b">
         <v>0</v>
       </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>data/receipts/731c4dd25ad044ae83722843d354d5dd.json</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -5455,7 +5923,11 @@
       <c r="L119" t="b">
         <v>0</v>
       </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>data/receipts/07da1f517fbc468eb22a08c27ef7ec80.json</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -5501,7 +5973,11 @@
       <c r="L120" t="b">
         <v>0</v>
       </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>data/receipts/ccd58e2187bb4adc838773c95b4d6fdc.json</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -5547,7 +6023,11 @@
       <c r="L121" t="b">
         <v>0</v>
       </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>data/receipts/ffa27ab71da84020a5688e4f95d7cbf6.json</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -5586,7 +6066,11 @@
       <c r="L122" t="b">
         <v>0</v>
       </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="N122" t="inlineStr">
+        <is>
+          <t>data/receipts/72cc54ef00d8420b8c30341517edab59.json</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -5629,7 +6113,11 @@
       <c r="L123" t="b">
         <v>0</v>
       </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="N123" t="inlineStr">
+        <is>
+          <t>data/receipts/2179ef66c7f54dcfb5c496cda9fa7b5a.json</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -5674,7 +6162,11 @@
       <c r="L124" t="b">
         <v>0</v>
       </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="N124" t="inlineStr">
+        <is>
+          <t>data/receipts/c7c6db7524d448f793a3866ee5021390.json</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -5719,7 +6211,11 @@
       <c r="L125" t="b">
         <v>0</v>
       </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="N125" t="inlineStr">
+        <is>
+          <t>data/receipts/c5c4a9c75a3941d99946ccd908b3016e.json</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -5758,7 +6254,11 @@
       <c r="L126" t="b">
         <v>0</v>
       </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>data/receipts/2cb97a84ece24870ade2e687af370f4a.json</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -5799,7 +6299,11 @@
       <c r="L127" t="b">
         <v>0</v>
       </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>data/receipts/94cafbf01fe940a081bb8950d27b6345.json</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -5838,7 +6342,11 @@
       <c r="L128" t="b">
         <v>0</v>
       </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>data/receipts/a9853eec13714db79cd402ac46480910.json</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -5883,7 +6391,11 @@
       <c r="L129" t="b">
         <v>0</v>
       </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="N129" t="inlineStr">
+        <is>
+          <t>data/receipts/a2ad594000d1436f895567b0dfe04ac6.json</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -5929,7 +6441,11 @@
       <c r="L130" t="b">
         <v>0</v>
       </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="N130" t="inlineStr">
+        <is>
+          <t>data/receipts/8426e6f4004349b2845426ea9e9b9142.json</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -5975,7 +6491,11 @@
       <c r="L131" t="b">
         <v>0</v>
       </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="N131" t="inlineStr">
+        <is>
+          <t>data/receipts/f798ec99e4ae4db0832c74ca58df694c.json</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -6020,7 +6540,11 @@
       <c r="L132" t="b">
         <v>0</v>
       </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="N132" t="inlineStr">
+        <is>
+          <t>data/receipts/ccaef559ca2d4918816e41c731c6971c.json</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -6065,7 +6589,11 @@
       <c r="L133" t="b">
         <v>0</v>
       </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="N133" t="inlineStr">
+        <is>
+          <t>data/receipts/f2d66ab481b747aa9ae2aec47a6abb52.json</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -6108,7 +6636,11 @@
       <c r="L134" t="b">
         <v>0</v>
       </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="N134" t="inlineStr">
+        <is>
+          <t>data/receipts/f8cee633ffc745b4b99f430e32adb4a6.json</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -6149,7 +6681,11 @@
       <c r="L135" t="b">
         <v>0</v>
       </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="N135" t="inlineStr">
+        <is>
+          <t>data/receipts/0564ef04680e47d9b622929dbaff924a.json</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -6194,7 +6730,11 @@
       <c r="L136" t="b">
         <v>0</v>
       </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="N136" t="inlineStr">
+        <is>
+          <t>data/receipts/e87b12d795a3484fb4b3ce323a2a80ce.json</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -6239,7 +6779,11 @@
       <c r="L137" t="b">
         <v>0</v>
       </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="N137" t="inlineStr">
+        <is>
+          <t>data/receipts/1976e60377a3433e8663cfee66a23f8c.json</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -6280,7 +6824,11 @@
       <c r="L138" t="b">
         <v>0</v>
       </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="N138" t="inlineStr">
+        <is>
+          <t>data/receipts/25a413cb86c84782a05d09950aa42233.json</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -6319,7 +6867,11 @@
       <c r="L139" t="b">
         <v>0</v>
       </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="N139" t="inlineStr">
+        <is>
+          <t>data/receipts/a2e99c9cc317421f90f428efe4f8c3b2.json</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -6358,7 +6910,11 @@
       <c r="L140" t="b">
         <v>0</v>
       </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="N140" t="inlineStr">
+        <is>
+          <t>data/receipts/0372ccdaa6fa421996ab2dd3ba0e9dec.json</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -6401,7 +6957,11 @@
       <c r="L141" t="b">
         <v>0</v>
       </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="N141" t="inlineStr">
+        <is>
+          <t>data/receipts/8ea6dff2f4fe4f9b8a916e96d7b6e7c4.json</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -6448,7 +7008,11 @@
       <c r="L142" t="b">
         <v>0</v>
       </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="N142" t="inlineStr">
+        <is>
+          <t>data/receipts/9ac5e858eb6043afa32ad4bd68e26c79.json</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -6489,7 +7053,11 @@
       <c r="L143" t="b">
         <v>0</v>
       </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="N143" t="inlineStr">
+        <is>
+          <t>data/receipts/660206b16a7546b1ab22121caad91ee0.json</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -6528,7 +7096,11 @@
       <c r="L144" t="b">
         <v>0</v>
       </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="N144" t="inlineStr">
+        <is>
+          <t>data/receipts/bc352677ea7b40c2b1114b4ae82c82a8.json</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -6567,7 +7139,11 @@
       <c r="L145" t="b">
         <v>0</v>
       </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="N145" t="inlineStr">
+        <is>
+          <t>data/receipts/ad691ab833d14b7b8542ea2749bf1702.json</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -6606,7 +7182,11 @@
       <c r="L146" t="b">
         <v>0</v>
       </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="N146" t="inlineStr">
+        <is>
+          <t>data/receipts/a309fdf2185749aebe9b27ffb6bdd07f.json</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -6645,7 +7225,11 @@
       <c r="L147" t="b">
         <v>0</v>
       </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="N147" t="inlineStr">
+        <is>
+          <t>data/receipts/0eacdadc5fc34a748bfdf09a27fe0bb9.json</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -6684,7 +7268,11 @@
       <c r="L148" t="b">
         <v>0</v>
       </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="N148" t="inlineStr">
+        <is>
+          <t>data/receipts/4b7c15291b054511bb7425b22016dde7.json</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -6723,7 +7311,11 @@
       <c r="L149" t="b">
         <v>0</v>
       </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="N149" t="inlineStr">
+        <is>
+          <t>data/receipts/dc47a025dcf949d28648c1d29eb04f4a.json</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -6762,7 +7354,11 @@
       <c r="L150" t="b">
         <v>0</v>
       </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="N150" t="inlineStr">
+        <is>
+          <t>data/receipts/fcc4bf8a5ec242f5b7cb45c8bea6dd17.json</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -6807,7 +7403,11 @@
       <c r="L151" t="b">
         <v>0</v>
       </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="N151" t="inlineStr">
+        <is>
+          <t>data/receipts/660d5966fa474ebcbe31ecbdbdb70474.json</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -6848,7 +7448,11 @@
       <c r="L152" t="b">
         <v>0</v>
       </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="N152" t="inlineStr">
+        <is>
+          <t>data/receipts/55dc57e883d94d6d8c229766cc89aa02.json</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -6889,7 +7493,11 @@
       <c r="L153" t="b">
         <v>0</v>
       </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="N153" t="inlineStr">
+        <is>
+          <t>data/receipts/1e7c28b7282b42be8d1202927948fc2e.json</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -6934,7 +7542,11 @@
       <c r="L154" t="b">
         <v>0</v>
       </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="N154" t="inlineStr">
+        <is>
+          <t>data/receipts/84cd7bb5b8414260bab1668a9c9572d0.json</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -6981,7 +7593,11 @@
       <c r="L155" t="b">
         <v>0</v>
       </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="N155" t="inlineStr">
+        <is>
+          <t>data/receipts/a20a8c12aac848feac4df4f386812989.json</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -7028,7 +7644,11 @@
       <c r="L156" t="b">
         <v>0</v>
       </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="N156" t="inlineStr">
+        <is>
+          <t>data/receipts/4e41ae7a1d02413ab804b5c3715769af.json</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -7069,7 +7689,11 @@
       <c r="L157" t="b">
         <v>0</v>
       </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="N157" t="inlineStr">
+        <is>
+          <t>data/receipts/9e1fa6905b744aaf98e5704904ccf928.json</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -7110,7 +7734,11 @@
       <c r="L158" t="b">
         <v>0</v>
       </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="N158" t="inlineStr">
+        <is>
+          <t>data/receipts/c385e0d21db948709e93df9db7141f53.json</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -7151,7 +7779,11 @@
       <c r="L159" t="b">
         <v>0</v>
       </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="N159" t="inlineStr">
+        <is>
+          <t>data/receipts/6045683c4320466cbe3c938fcf67ab58.json</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -7190,7 +7822,11 @@
       <c r="L160" t="b">
         <v>0</v>
       </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="N160" t="inlineStr">
+        <is>
+          <t>data/receipts/61e595a23af6471098b94a378d2a1945.json</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -7235,7 +7871,11 @@
       <c r="L161" t="b">
         <v>0</v>
       </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="N161" t="inlineStr">
+        <is>
+          <t>data/receipts/d5bea12f03d54ed298038cc27e42345e.json</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -7274,7 +7914,11 @@
       <c r="L162" t="b">
         <v>0</v>
       </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="N162" t="inlineStr">
+        <is>
+          <t>data/receipts/f42cc5660faa4eb585cf55d26fdb52c1.json</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -7319,7 +7963,11 @@
       <c r="L163" t="b">
         <v>0</v>
       </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="N163" t="inlineStr">
+        <is>
+          <t>data/receipts/7da89c9fb6994360853047c5e5c6978c.json</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -7358,7 +8006,11 @@
       <c r="L164" t="b">
         <v>0</v>
       </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="N164" t="inlineStr">
+        <is>
+          <t>data/receipts/1a6a8431fa4a44d49e7ca31188e24c3e.json</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -7397,7 +8049,11 @@
       <c r="L165" t="b">
         <v>0</v>
       </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="N165" t="inlineStr">
+        <is>
+          <t>data/receipts/136ef3058cde4f138bf7f4160779efeb.json</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -7443,7 +8099,11 @@
       <c r="L166" t="b">
         <v>0</v>
       </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="N166" t="inlineStr">
+        <is>
+          <t>data/receipts/34dcd6f2091942a699692aa83149b6bb.json</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -7482,7 +8142,11 @@
       <c r="L167" t="b">
         <v>0</v>
       </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="N167" t="inlineStr">
+        <is>
+          <t>data/receipts/8c4caab6c1aa46bcbaebcab80875321e.json</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -7524,7 +8188,11 @@
       <c r="L168" t="b">
         <v>0</v>
       </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="N168" t="inlineStr">
+        <is>
+          <t>data/receipts/0286eef129944260baf4051a4fd61ff2.json</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -7565,7 +8233,11 @@
       <c r="L169" t="b">
         <v>0</v>
       </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="N169" t="inlineStr">
+        <is>
+          <t>data/receipts/96b7f8496e0b4d778b545a9651f7b17a.json</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -7606,7 +8278,11 @@
       <c r="L170" t="b">
         <v>0</v>
       </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="N170" t="inlineStr">
+        <is>
+          <t>data/receipts/a505cb1f26c940c3928870900f6de23d.json</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -7647,7 +8323,11 @@
       <c r="L171" t="b">
         <v>0</v>
       </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="N171" t="inlineStr">
+        <is>
+          <t>data/receipts/92b0a68a3ad6479bbc65ea933941ae01.json</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -7694,7 +8374,11 @@
       <c r="L172" t="b">
         <v>0</v>
       </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="N172" t="inlineStr">
+        <is>
+          <t>data/receipts/66815a9e21744c498d9eee0f5c8aa885.json</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -7735,7 +8419,11 @@
       <c r="L173" t="b">
         <v>0</v>
       </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="N173" t="inlineStr">
+        <is>
+          <t>data/receipts/3862a2bb0a604031a5e422fe1acf659d.json</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -7776,7 +8464,11 @@
       <c r="L174" t="b">
         <v>0</v>
       </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="N174" t="inlineStr">
+        <is>
+          <t>data/receipts/ed5d56daedc44cf1a6f893f634cbbb52.json</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -7817,7 +8509,11 @@
       <c r="L175" t="b">
         <v>0</v>
       </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="N175" t="inlineStr">
+        <is>
+          <t>data/receipts/300ada3b5b1c4ba486c36e3658343fd7.json</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -7864,7 +8560,11 @@
       <c r="L176" t="b">
         <v>0</v>
       </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="N176" t="inlineStr">
+        <is>
+          <t>data/receipts/61a5198adbdd4f00a1e3e9ed0be62f95.json</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -7905,7 +8605,11 @@
       <c r="L177" t="b">
         <v>0</v>
       </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="N177" t="inlineStr">
+        <is>
+          <t>data/receipts/48d21dbecf7c4835b7f426b1d6bc3284.json</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -7946,7 +8650,11 @@
       <c r="L178" t="b">
         <v>0</v>
       </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="N178" t="inlineStr">
+        <is>
+          <t>data/receipts/e125abc8e30a43449c97d61926270ea0.json</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -7991,7 +8699,11 @@
       <c r="L179" t="b">
         <v>0</v>
       </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="N179" t="inlineStr">
+        <is>
+          <t>data/receipts/848bcecb80a742acbe306d4c33f0ca8c.json</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -8034,7 +8746,11 @@
       <c r="L180" t="b">
         <v>0</v>
       </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="N180" t="inlineStr">
+        <is>
+          <t>data/receipts/cf9a38360b654f24afb758e99e32d45f.json</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -8077,7 +8793,11 @@
       <c r="L181" t="b">
         <v>0</v>
       </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="N181" t="inlineStr">
+        <is>
+          <t>data/receipts/4f325d50787c4163b91a1a364add719e.json</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -8116,7 +8836,11 @@
       <c r="L182" t="b">
         <v>0</v>
       </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="N182" t="inlineStr">
+        <is>
+          <t>data/receipts/dbdfad63c1484484b7b7f2e27eca9a98.json</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -8157,7 +8881,11 @@
       <c r="L183" t="b">
         <v>0</v>
       </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="N183" t="inlineStr">
+        <is>
+          <t>data/receipts/9ccfecc323994de0a9d3218e71822f27.json</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -8198,7 +8926,11 @@
       <c r="L184" t="b">
         <v>0</v>
       </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="N184" t="inlineStr">
+        <is>
+          <t>data/receipts/4b2367e97b1644a2bd160578c3c36e57.json</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -8237,7 +8969,11 @@
       <c r="L185" t="b">
         <v>0</v>
       </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="N185" t="inlineStr">
+        <is>
+          <t>data/receipts/02b8df1443f940b19338b2d04c5afc5f.json</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -8276,7 +9012,11 @@
       <c r="L186" t="b">
         <v>0</v>
       </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="N186" t="inlineStr">
+        <is>
+          <t>data/receipts/bcd0f32af8e0457c8cfd24bb7f9796a2.json</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -8321,7 +9061,11 @@
       <c r="L187" t="b">
         <v>0</v>
       </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="N187" t="inlineStr">
+        <is>
+          <t>data/receipts/04a396da8ee946f197a3f062d11cf3c4.json</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -8366,7 +9110,11 @@
       <c r="L188" t="b">
         <v>0</v>
       </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="N188" t="inlineStr">
+        <is>
+          <t>data/receipts/e603243249374351b8bf54fe4a4bdd11.json</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -8407,7 +9155,11 @@
       <c r="L189" t="b">
         <v>0</v>
       </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="N189" t="inlineStr">
+        <is>
+          <t>data/receipts/7efcda0b1a3048a99444fadbaefa3fe1.json</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -8446,7 +9198,11 @@
       <c r="L190" t="b">
         <v>0</v>
       </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="N190" t="inlineStr">
+        <is>
+          <t>data/receipts/fa4c26698d834e06aaa24e7ae1e2fa9b.json</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -8489,7 +9245,11 @@
       <c r="L191" t="b">
         <v>0</v>
       </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="N191" t="inlineStr">
+        <is>
+          <t>data/receipts/9ba3a543b3db4f3a85bd7cb04bfd174d.json</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -8534,7 +9294,11 @@
       <c r="L192" t="b">
         <v>0</v>
       </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="N192" t="inlineStr">
+        <is>
+          <t>data/receipts/5792729e968b41c59c34ba4de2345b0f.json</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -8579,7 +9343,11 @@
       <c r="L193" t="b">
         <v>0</v>
       </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="N193" t="inlineStr">
+        <is>
+          <t>data/receipts/6abc1d76ee3b4344830bbfff9ba351d1.json</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -8620,7 +9388,11 @@
       <c r="L194" t="b">
         <v>0</v>
       </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="N194" t="inlineStr">
+        <is>
+          <t>data/receipts/9f31b88ec8b746f78a1de74cd6150282.json</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -8665,7 +9437,11 @@
       <c r="L195" t="b">
         <v>0</v>
       </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="N195" t="inlineStr">
+        <is>
+          <t>data/receipts/238456b3f05d4496bc08af1cd01216a2.json</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -8706,7 +9482,11 @@
       <c r="L196" t="b">
         <v>0</v>
       </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="N196" t="inlineStr">
+        <is>
+          <t>data/receipts/827d47753bc9442b93d9d6589678bb8f.json</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -8747,7 +9527,11 @@
       <c r="L197" t="b">
         <v>0</v>
       </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="N197" t="inlineStr">
+        <is>
+          <t>data/receipts/6a36195b2ebc42709b015c6ae2b4e21e.json</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -8788,7 +9572,11 @@
       <c r="L198" t="b">
         <v>0</v>
       </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="N198" t="inlineStr">
+        <is>
+          <t>data/receipts/1886a891882f4a14b2f228beeb206b5b.json</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -8833,7 +9621,11 @@
       <c r="L199" t="b">
         <v>0</v>
       </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="N199" t="inlineStr">
+        <is>
+          <t>data/receipts/ace0096c008e48caa32dd3126eced0c5.json</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -8872,7 +9664,11 @@
       <c r="L200" t="b">
         <v>0</v>
       </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="N200" t="inlineStr">
+        <is>
+          <t>data/receipts/ec3c384d8b7e4e8aa9f5b6ae5017589b.json</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -8915,7 +9711,11 @@
       <c r="L201" t="b">
         <v>0</v>
       </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="N201" t="inlineStr">
+        <is>
+          <t>data/receipts/793db9f1ca084d898971557e91a7711c.json</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -8958,7 +9758,11 @@
       <c r="L202" t="b">
         <v>0</v>
       </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="N202" t="inlineStr">
+        <is>
+          <t>data/receipts/ea948fb8bb0646cfbfed2b9da6df534d.json</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -9001,7 +9805,11 @@
       <c r="L203" t="b">
         <v>0</v>
       </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="N203" t="inlineStr">
+        <is>
+          <t>data/receipts/b6e21fbb5955473fa9fbbb3ed3f5eb94.json</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -9040,7 +9848,11 @@
       <c r="L204" t="b">
         <v>0</v>
       </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="N204" t="inlineStr">
+        <is>
+          <t>data/receipts/88c0bff394f74aa5ac7c37148f22b493.json</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -9085,7 +9897,11 @@
       <c r="L205" t="b">
         <v>0</v>
       </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="N205" t="inlineStr">
+        <is>
+          <t>data/receipts/639df7943750489896dfee9d92106790.json</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -9128,7 +9944,11 @@
       <c r="L206" t="b">
         <v>0</v>
       </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="N206" t="inlineStr">
+        <is>
+          <t>data/receipts/b881a49ade2c4815baaf19c6fec827ac.json</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -9173,7 +9993,11 @@
       <c r="L207" t="b">
         <v>0</v>
       </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="N207" t="inlineStr">
+        <is>
+          <t>data/receipts/047ae8c7c1ac42c6bd6be756e2a36d0d.json</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -9216,7 +10040,11 @@
       <c r="L208" t="b">
         <v>0</v>
       </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="N208" t="inlineStr">
+        <is>
+          <t>data/receipts/4ef9dcde0e3e457aaaf900769c09fd4f.json</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -9261,7 +10089,11 @@
       <c r="L209" t="b">
         <v>0</v>
       </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="N209" t="inlineStr">
+        <is>
+          <t>data/receipts/8b4e9225d9e84e5ab19250b9ed522680.json</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -9306,7 +10138,11 @@
       <c r="L210" t="b">
         <v>0</v>
       </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="N210" t="inlineStr">
+        <is>
+          <t>data/receipts/9c54cf9aa24041de8591291dd4666db1.json</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -9351,7 +10187,11 @@
       <c r="L211" t="b">
         <v>0</v>
       </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="N211" t="inlineStr">
+        <is>
+          <t>data/receipts/760efc3524184359bef3125351a3ff43.json</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -9394,7 +10234,11 @@
       <c r="L212" t="b">
         <v>0</v>
       </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="N212" t="inlineStr">
+        <is>
+          <t>data/receipts/f637c43738fc4ca3997d0fd99cf8c76b.json</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -9437,7 +10281,11 @@
       <c r="L213" t="b">
         <v>0</v>
       </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="N213" t="inlineStr">
+        <is>
+          <t>data/receipts/abbf8a6096164f74813b4cbf21648d1f.json</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -9482,7 +10330,11 @@
       <c r="L214" t="b">
         <v>0</v>
       </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="N214" t="inlineStr">
+        <is>
+          <t>data/receipts/5642ab089b684fa697754af8e8369c60.json</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -9527,7 +10379,11 @@
       <c r="L215" t="b">
         <v>0</v>
       </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="N215" t="inlineStr">
+        <is>
+          <t>data/receipts/459e37ae81524b988a0864442f38d7b8.json</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -9570,7 +10426,11 @@
       <c r="L216" t="b">
         <v>0</v>
       </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="N216" t="inlineStr">
+        <is>
+          <t>data/receipts/0263a11d50114c97bb93ddd8f81f2bad.json</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -9613,7 +10473,11 @@
       <c r="L217" t="b">
         <v>0</v>
       </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="N217" t="inlineStr">
+        <is>
+          <t>data/receipts/f4dc273e29a4433883a76d3c21c96858.json</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -9656,7 +10520,11 @@
       <c r="L218" t="b">
         <v>0</v>
       </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="N218" t="inlineStr">
+        <is>
+          <t>data/receipts/b10b5b13d7d14ba4836f6c2eccd75407.json</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="B219" t="inlineStr">
@@ -9703,7 +10571,11 @@
       <c r="L219" t="b">
         <v>0</v>
       </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="N219" t="inlineStr">
+        <is>
+          <t>data/receipts/097f3b2f32624e0885ae8c05a9c74783.json</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="B220" t="inlineStr">
@@ -9733,7 +10605,7 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>&lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt;-&lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt;: &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt; &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt; &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt; / &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt; (&lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt; &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt;). &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt; &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt;’s &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt; &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt;?</t>
+          <t>[[[ID_NUMBER]]]-[[[ID_NUMBER]]]: [[[ID_NUMBER]]] [[[ID_NUMBER]]] [[[ID_NUMBER]]] / [[[ID_NUMBER]]] ([[[ID_NUMBER]]] [[[ID_NUMBER]]]). [[[ID_NUMBER]]] [[[ID_NUMBER]]]’s [[[ID_NUMBER]]] [[[ID_NUMBER]]]?</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
@@ -9750,7 +10622,11 @@
       <c r="L220" t="b">
         <v>0</v>
       </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="N220" t="inlineStr">
+        <is>
+          <t>data/receipts/5f8c28c7831b4221a3204f89beebf795.json</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="B221" t="inlineStr">
@@ -9797,7 +10673,11 @@
       <c r="L221" t="b">
         <v>0</v>
       </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="N221" t="inlineStr">
+        <is>
+          <t>data/receipts/3c796fc4f5ce48328f0cfbda98949ff2.json</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="B222" t="inlineStr">
@@ -9844,7 +10724,11 @@
       <c r="L222" t="b">
         <v>0</v>
       </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="N222" t="inlineStr">
+        <is>
+          <t>data/receipts/eb52ec871ceb4b888ddc0604e140b4df.json</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="B223" t="inlineStr">
@@ -9874,7 +10758,7 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>&lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt; &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt;? I &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt; &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt; (&lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt;, &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt;-&lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt;, &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt;; &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt; &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt;; &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt; &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt;) &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt; &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt; (&lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt;, &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt;-&lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt;, &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt;; &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt; &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt;; &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt; &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt;). &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt; a &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt;.</t>
+          <t>[[[ID_NUMBER]]] [[[ID_NUMBER]]]? I [[[ID_NUMBER]]] [[[ID_NUMBER]]] ([[[ID_NUMBER]]], [[[ID_NUMBER]]]-[[[ID_NUMBER]]], [[[ID_NUMBER]]]; [[[ID_NUMBER]]] [[[ID_NUMBER]]]; [[[ID_NUMBER]]] [[[ID_NUMBER]]]) [[[ID_NUMBER]]] [[[ID_NUMBER]]] ([[[ID_NUMBER]]], [[[ID_NUMBER]]]-[[[ID_NUMBER]]], [[[ID_NUMBER]]]; [[[ID_NUMBER]]] [[[ID_NUMBER]]]; [[[ID_NUMBER]]] [[[ID_NUMBER]]]). [[[ID_NUMBER]]] a [[[ID_NUMBER]]].</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
@@ -9891,7 +10775,11 @@
       <c r="L223" t="b">
         <v>0</v>
       </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="N223" t="inlineStr">
+        <is>
+          <t>data/receipts/050f9764136d4eefa544faad4ae33bd0.json</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="B224" t="inlineStr">
@@ -9938,7 +10826,11 @@
       <c r="L224" t="b">
         <v>0</v>
       </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="N224" t="inlineStr">
+        <is>
+          <t>data/receipts/79c6a1ee2b114c3b905d76fdc15b344a.json</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="B225" t="inlineStr">
@@ -9985,7 +10877,11 @@
       <c r="L225" t="b">
         <v>0</v>
       </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="N225" t="inlineStr">
+        <is>
+          <t>data/receipts/6694c3e9f1a44b8f9185b6cbf45f3dd6.json</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="B226" t="inlineStr">
@@ -10015,7 +10911,7 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>&lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt; &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt;: &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt; / &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt;-&lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt; / &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt;. &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt;, &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt;, &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt; &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt;, &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt; &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt;. &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt; &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt; (&lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt; &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt;).</t>
+          <t>[[[ID_NUMBER]]] [[[ID_NUMBER]]]: [[[ID_NUMBER]]] / [[[ID_NUMBER]]]-[[[ID_NUMBER]]] / [[[ID_NUMBER]]]. [[[ID_NUMBER]]], [[[ID_NUMBER]]], [[[ID_NUMBER]]] [[[ID_NUMBER]]], [[[ID_NUMBER]]] [[[ID_NUMBER]]]. [[[ID_NUMBER]]] [[[ID_NUMBER]]] ([[[ID_NUMBER]]] [[[ID_NUMBER]]]).</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
@@ -10032,7 +10928,11 @@
       <c r="L226" t="b">
         <v>0</v>
       </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="N226" t="inlineStr">
+        <is>
+          <t>data/receipts/9b5bd1e168df40aa9558056fa0a94475.json</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="B227" t="inlineStr">
@@ -10074,7 +10974,7 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>&lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt; a &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt; &amp; &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt;-&lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt; &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt;: e.g., &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt;, &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt;, &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt;, &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt;, &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt;. &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt; &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt; (&lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt;, &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt;, &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt;, &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt;, &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt;).</t>
+          <t>[[[ID_NUMBER]]] a [[[ID_NUMBER]]] &amp; [[[ID_NUMBER]]]-[[[ID_NUMBER]]] [[[ID_NUMBER]]]: e.g., [[[ID_NUMBER]]], [[[ID_NUMBER]]], [[[ID_NUMBER]]], [[[ID_NUMBER]]], [[[ID_NUMBER]]]. [[[ID_NUMBER]]] [[[ID_NUMBER]]] ([[[ID_NUMBER]]], [[[ID_NUMBER]]], [[[ID_NUMBER]]], [[[ID_NUMBER]]], [[[ID_NUMBER]]]).</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
@@ -10097,7 +10997,11 @@
       <c r="L227" t="b">
         <v>0</v>
       </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="N227" t="inlineStr">
+        <is>
+          <t>data/receipts/13d2363efbdd427a8f35093aaa379d82.json</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="B228" t="inlineStr">
@@ -10127,7 +11031,7 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>&lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt; &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt; (&lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt;, &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt;, &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt; &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt;, &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt;) &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt;’t &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt; (&lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt;, &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt;) &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt;.</t>
+          <t>[[[ID_NUMBER]]] [[[ID_NUMBER]]] ([[[ID_NUMBER]]], [[[ID_NUMBER]]], [[[ID_NUMBER]]] [[[ID_NUMBER]]], [[[ID_NUMBER]]]) [[[ID_NUMBER]]]’t [[[ID_NUMBER]]] ([[[ID_NUMBER]]], [[[ID_NUMBER]]]) [[[ID_NUMBER]]].</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
@@ -10144,7 +11048,11 @@
       <c r="L228" t="b">
         <v>0</v>
       </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="N228" t="inlineStr">
+        <is>
+          <t>data/receipts/8673e1c3a7ee4c41a0a8f87c55313479.json</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="B229" t="inlineStr">
@@ -10191,7 +11099,11 @@
       <c r="L229" t="b">
         <v>0</v>
       </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="N229" t="inlineStr">
+        <is>
+          <t>data/receipts/6ea30e28856d421e8feebd620822ed77.json</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="B230" t="inlineStr">
@@ -10221,7 +11133,7 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>&lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt;’s &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt; &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt; (&lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt;, &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt;; &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt;; &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt;, &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt; &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt;). &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt;.</t>
+          <t>[[[ID_NUMBER]]]’s [[[ID_NUMBER]]] [[[ID_NUMBER]]] ([[[ID_NUMBER]]], [[[ID_NUMBER]]]; [[[ID_NUMBER]]]; [[[ID_NUMBER]]], [[[ID_NUMBER]]] [[[ID_NUMBER]]]). [[[ID_NUMBER]]].</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
@@ -10238,7 +11150,11 @@
       <c r="L230" t="b">
         <v>0</v>
       </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="N230" t="inlineStr">
+        <is>
+          <t>data/receipts/595694102af9465ca04b87e64aab14ad.json</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="B231" t="inlineStr">
@@ -10285,7 +11201,11 @@
       <c r="L231" t="b">
         <v>0</v>
       </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="N231" t="inlineStr">
+        <is>
+          <t>data/receipts/e033b07c3cf3465e8a242b977a1eaa9b.json</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="B232" t="inlineStr">
@@ -10332,7 +11252,11 @@
       <c r="L232" t="b">
         <v>0</v>
       </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="N232" t="inlineStr">
+        <is>
+          <t>data/receipts/d667be5b85d84c11a1e7522c4e5f1a4c.json</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="B233" t="inlineStr">
@@ -10379,7 +11303,11 @@
       <c r="L233" t="b">
         <v>0</v>
       </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="N233" t="inlineStr">
+        <is>
+          <t>data/receipts/bd6acf20380c4597a9136301307a11f6.json</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="B234" t="inlineStr">
@@ -10409,7 +11337,7 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>&lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt; a &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt;-&lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt; &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt; (&lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt; / &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt; / &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt;; &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt; &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt;; &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt; &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt;) &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt; (&lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt;) &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt; &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt;.</t>
+          <t>[[[ID_NUMBER]]] a [[[ID_NUMBER]]]-[[[ID_NUMBER]]] [[[ID_NUMBER]]] ([[[ID_NUMBER]]] / [[[ID_NUMBER]]] / [[[ID_NUMBER]]]; [[[ID_NUMBER]]] [[[ID_NUMBER]]]; [[[ID_NUMBER]]] [[[ID_NUMBER]]]) [[[ID_NUMBER]]] ([[[ID_NUMBER]]]) [[[ID_NUMBER]]] [[[ID_NUMBER]]].</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
@@ -10426,7 +11354,11 @@
       <c r="L234" t="b">
         <v>0</v>
       </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="N234" t="inlineStr">
+        <is>
+          <t>data/receipts/32583278c02446308ebe24981853800a.json</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="B235" t="inlineStr">
@@ -10473,7 +11405,11 @@
       <c r="L235" t="b">
         <v>0</v>
       </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="N235" t="inlineStr">
+        <is>
+          <t>data/receipts/3f5b4ba9a762424eb99f247fd76fef59.json</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="B236" t="inlineStr">
@@ -10520,7 +11456,11 @@
       <c r="L236" t="b">
         <v>0</v>
       </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="N236" t="inlineStr">
+        <is>
+          <t>data/receipts/c713402a793c45b8b9eb341a1600f900.json</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="B237" t="inlineStr">
@@ -10550,7 +11490,7 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>&lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt; &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt; (&lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt; &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt;), &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt; &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt; (&lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt;, &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt;). &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt; a &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt;?</t>
+          <t>[[[ID_NUMBER]]] [[[ID_NUMBER]]] ([[[ID_NUMBER]]] [[[ID_NUMBER]]]), [[[ID_NUMBER]]] [[[ID_NUMBER]]] ([[[ID_NUMBER]]], [[[ID_NUMBER]]]). [[[ID_NUMBER]]] a [[[ID_NUMBER]]]?</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
@@ -10567,7 +11507,11 @@
       <c r="L237" t="b">
         <v>0</v>
       </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="N237" t="inlineStr">
+        <is>
+          <t>data/receipts/de187bf4b7d44a08a582e03146f7fce8.json</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="B238" t="inlineStr">
@@ -10597,7 +11541,7 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>&lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt; &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt; (&lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt; / &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt; / &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt;) &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt; &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt; (&lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt;) &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt; (&lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt;).</t>
+          <t>[[[ID_NUMBER]]] [[[ID_NUMBER]]] ([[[ID_NUMBER]]] / [[[ID_NUMBER]]] / [[[ID_NUMBER]]]) [[[ID_NUMBER]]] [[[ID_NUMBER]]] ([[[ID_NUMBER]]]) [[[ID_NUMBER]]] ([[[ID_NUMBER]]]).</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
@@ -10614,7 +11558,11 @@
       <c r="L238" t="b">
         <v>0</v>
       </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="N238" t="inlineStr">
+        <is>
+          <t>data/receipts/64b7233068284eb8abe7e8124ab35b09.json</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -10653,7 +11601,11 @@
       <c r="L239" t="b">
         <v>0</v>
       </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="N239" t="inlineStr">
+        <is>
+          <t>data/receipts/b8ca131efa8a4df49261b36d1a074ff3.json</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -10692,7 +11644,11 @@
       <c r="L240" t="b">
         <v>0</v>
       </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="N240" t="inlineStr">
+        <is>
+          <t>data/receipts/e224252553cd48e2b4f21416f49ee242.json</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -10731,7 +11687,11 @@
       <c r="L241" t="b">
         <v>0</v>
       </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="N241" t="inlineStr">
+        <is>
+          <t>data/receipts/2c841eedc5e94e26b745d99ef1674262.json</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -10770,7 +11730,11 @@
       <c r="L242" t="b">
         <v>0</v>
       </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="N242" t="inlineStr">
+        <is>
+          <t>data/receipts/87366f715f9e4acd80a5dfd7b88a72cd.json</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -10809,7 +11773,11 @@
       <c r="L243" t="b">
         <v>0</v>
       </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="N243" t="inlineStr">
+        <is>
+          <t>data/receipts/538182282bdc408a8e64475e2da3c875.json</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -10848,7 +11816,11 @@
       <c r="L244" t="b">
         <v>0</v>
       </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="N244" t="inlineStr">
+        <is>
+          <t>data/receipts/b30dabc8bc804b5493063bf886919145.json</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -10887,7 +11859,11 @@
       <c r="L245" t="b">
         <v>0</v>
       </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="N245" t="inlineStr">
+        <is>
+          <t>data/receipts/1508701d7937474487f369655f1157c2.json</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -10926,7 +11902,11 @@
       <c r="L246" t="b">
         <v>0</v>
       </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="N246" t="inlineStr">
+        <is>
+          <t>data/receipts/7e8887e03a8543feab1114b9e9724fda.json</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -10965,7 +11945,11 @@
       <c r="L247" t="b">
         <v>0</v>
       </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="N247" t="inlineStr">
+        <is>
+          <t>data/receipts/13e5c5edbb9d47c8b85aad8c0be2c33d.json</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -11004,7 +11988,11 @@
       <c r="L248" t="b">
         <v>0</v>
       </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="N248" t="inlineStr">
+        <is>
+          <t>data/receipts/702fd1e5182f43778cdf2ed57eea4f34.json</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -11043,7 +12031,11 @@
       <c r="L249" t="b">
         <v>0</v>
       </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="N249" t="inlineStr">
+        <is>
+          <t>data/receipts/f6726bbe506a480a872e244f672b9f1f.json</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -11082,7 +12074,11 @@
       <c r="L250" t="b">
         <v>0</v>
       </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="N250" t="inlineStr">
+        <is>
+          <t>data/receipts/e7d1b755d2174bdf92f8e0227722070b.json</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -11121,7 +12117,11 @@
       <c r="L251" t="b">
         <v>0</v>
       </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="N251" t="inlineStr">
+        <is>
+          <t>data/receipts/de849d15d9d741d1943c8b7f46281496.json</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -11160,7 +12160,11 @@
       <c r="L252" t="b">
         <v>0</v>
       </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="N252" t="inlineStr">
+        <is>
+          <t>data/receipts/98ac708f4af64e718f09a80b5092fb53.json</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -11199,7 +12203,11 @@
       <c r="L253" t="b">
         <v>0</v>
       </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="N253" t="inlineStr">
+        <is>
+          <t>data/receipts/46e8ec70f5424466ad7d6b0212eb6ff7.json</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -11238,7 +12246,11 @@
       <c r="L254" t="b">
         <v>0</v>
       </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="N254" t="inlineStr">
+        <is>
+          <t>data/receipts/9be17e62efc94d1bb84c50a1b8ca4df9.json</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -11277,7 +12289,11 @@
       <c r="L255" t="b">
         <v>0</v>
       </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="N255" t="inlineStr">
+        <is>
+          <t>data/receipts/c2f2d7b2169840888a86cdda1f3ad423.json</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -11316,7 +12332,11 @@
       <c r="L256" t="b">
         <v>0</v>
       </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="N256" t="inlineStr">
+        <is>
+          <t>data/receipts/21817768f14a4a6abfd932b197c277ca.json</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -11355,7 +12375,11 @@
       <c r="L257" t="b">
         <v>0</v>
       </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="N257" t="inlineStr">
+        <is>
+          <t>data/receipts/4148b9c24b0d4b18baccab4a1f48856e.json</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -11394,7 +12418,11 @@
       <c r="L258" t="b">
         <v>0</v>
       </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="N258" t="inlineStr">
+        <is>
+          <t>data/receipts/eeb3e62b1fcd410fb76388394ba8f02d.json</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -11433,7 +12461,11 @@
       <c r="L259" t="b">
         <v>0</v>
       </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="N259" t="inlineStr">
+        <is>
+          <t>data/receipts/159e8f83faf44a1289316d1a88905bed.json</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -11472,7 +12504,11 @@
       <c r="L260" t="b">
         <v>0</v>
       </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="N260" t="inlineStr">
+        <is>
+          <t>data/receipts/c5f8892bb82542baab78d2860c783ca9.json</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -11515,7 +12551,11 @@
       <c r="L261" t="b">
         <v>0</v>
       </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="N261" t="inlineStr">
+        <is>
+          <t>data/receipts/7d44d5e20c124db087f31dc8d58a1b9a.json</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -11558,7 +12598,11 @@
       <c r="L262" t="b">
         <v>0</v>
       </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="N262" t="inlineStr">
+        <is>
+          <t>data/receipts/fb7bb65a9e384bec83a0fa6459448f46.json</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -11603,7 +12647,11 @@
       <c r="L263" t="b">
         <v>0</v>
       </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="N263" t="inlineStr">
+        <is>
+          <t>data/receipts/75f1c62c24c84acfaabc46b523a41ba9.json</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -11646,7 +12694,11 @@
       <c r="L264" t="b">
         <v>0</v>
       </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="N264" t="inlineStr">
+        <is>
+          <t>data/receipts/587032ca99f341949220342c07100f4d.json</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -11689,7 +12741,11 @@
       <c r="L265" t="b">
         <v>0</v>
       </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="N265" t="inlineStr">
+        <is>
+          <t>data/receipts/3d8d16775bc243f0aaa31298395843ed.json</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -11728,7 +12784,11 @@
       <c r="L266" t="b">
         <v>0</v>
       </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="N266" t="inlineStr">
+        <is>
+          <t>data/receipts/b34db6eedff9458696ac192de9582b95.json</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -11767,7 +12827,11 @@
       <c r="L267" t="b">
         <v>0</v>
       </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="N267" t="inlineStr">
+        <is>
+          <t>data/receipts/fdd6e77fc80b4c059136b1408aca7c13.json</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -11806,7 +12870,11 @@
       <c r="L268" t="b">
         <v>0</v>
       </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="N268" t="inlineStr">
+        <is>
+          <t>data/receipts/f6b27ace38f0451eaec308aae7f7c4f0.json</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -11845,7 +12913,11 @@
       <c r="L269" t="b">
         <v>0</v>
       </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="N269" t="inlineStr">
+        <is>
+          <t>data/receipts/66d0aaec732f4ed5bb00af71efaca7c8.json</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -11884,7 +12956,11 @@
       <c r="L270" t="b">
         <v>0</v>
       </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="N270" t="inlineStr">
+        <is>
+          <t>data/receipts/707e2a9b7c8645c6b85ccfa0d836bc90.json</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -11923,7 +12999,11 @@
       <c r="L271" t="b">
         <v>0</v>
       </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="N271" t="inlineStr">
+        <is>
+          <t>data/receipts/7632457c0b8542ceb1e648599853332b.json</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -11962,7 +13042,11 @@
       <c r="L272" t="b">
         <v>0</v>
       </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="N272" t="inlineStr">
+        <is>
+          <t>data/receipts/7f3689cdd6334621b4fac72578e20e8b.json</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -12009,7 +13093,11 @@
       <c r="L273" t="b">
         <v>0</v>
       </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="N273" t="inlineStr">
+        <is>
+          <t>data/receipts/fbbbffc65b954227badfbcc5dcec6209.json</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -12056,7 +13144,11 @@
       <c r="L274" t="b">
         <v>0</v>
       </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="N274" t="inlineStr">
+        <is>
+          <t>data/receipts/60a3cceb3b744c15a1617fb67e60a5d8.json</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -12097,7 +13189,11 @@
       <c r="L275" t="b">
         <v>0</v>
       </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="N275" t="inlineStr">
+        <is>
+          <t>data/receipts/0791317f6d8846fbb92afe5d97307024.json</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -12138,7 +13234,11 @@
       <c r="L276" t="b">
         <v>0</v>
       </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="N276" t="inlineStr">
+        <is>
+          <t>data/receipts/5ec85647aa714752b21eef93c94ec749.json</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -12185,7 +13285,11 @@
       <c r="L277" t="b">
         <v>0</v>
       </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="N277" t="inlineStr">
+        <is>
+          <t>data/receipts/1126dce52d89429cac1113d120ded72e.json</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -12226,7 +13330,11 @@
       <c r="L278" t="b">
         <v>0</v>
       </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="N278" t="inlineStr">
+        <is>
+          <t>data/receipts/aff8c8a67f7e40c38b4f531c03c9410b.json</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -12269,7 +13377,11 @@
       <c r="L279" t="b">
         <v>0</v>
       </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="N279" t="inlineStr">
+        <is>
+          <t>data/receipts/d51dde1cbba14bd996bfa57d026177b2.json</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -12308,7 +13420,11 @@
       <c r="L280" t="b">
         <v>0</v>
       </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="N280" t="inlineStr">
+        <is>
+          <t>data/receipts/d89dd0c1cc93459da3b3fb00360860ac.json</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -12349,7 +13465,11 @@
       <c r="L281" t="b">
         <v>0</v>
       </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="N281" t="inlineStr">
+        <is>
+          <t>data/receipts/b8be4bb6fbdc475bb05886e66029ea2a.json</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -12388,7 +13508,11 @@
       <c r="L282" t="b">
         <v>0</v>
       </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="N282" t="inlineStr">
+        <is>
+          <t>data/receipts/a045691bc5734094b08d90acb2f36d8f.json</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -12433,7 +13557,11 @@
       <c r="L283" t="b">
         <v>0</v>
       </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="N283" t="inlineStr">
+        <is>
+          <t>data/receipts/9dcdfa2d3a554c20a5a9307a6b34f1dd.json</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -12474,7 +13602,11 @@
       <c r="L284" t="b">
         <v>0</v>
       </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="N284" t="inlineStr">
+        <is>
+          <t>data/receipts/45880440bf9c4eb882a15e20282dc459.json</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -12513,7 +13645,11 @@
       <c r="L285" t="b">
         <v>0</v>
       </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="N285" t="inlineStr">
+        <is>
+          <t>data/receipts/9accb059cdf5438caf816349c7cac685.json</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -12560,7 +13696,11 @@
       <c r="L286" t="b">
         <v>0</v>
       </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="N286" t="inlineStr">
+        <is>
+          <t>data/receipts/4ac6a1dc64b24674b07cfe24d3d01dac.json</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -12599,7 +13739,11 @@
       <c r="L287" t="b">
         <v>0</v>
       </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="N287" t="inlineStr">
+        <is>
+          <t>data/receipts/6665a17a45c24e489a71d4db87b2bd1c.json</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -12644,7 +13788,11 @@
       <c r="L288" t="b">
         <v>0</v>
       </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="N288" t="inlineStr">
+        <is>
+          <t>data/receipts/c7181af621764df9916b5b467b113b37.json</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -12683,7 +13831,11 @@
       <c r="L289" t="b">
         <v>0</v>
       </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="N289" t="inlineStr">
+        <is>
+          <t>data/receipts/cf14a01f7b4b4a099feca49071586033.json</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -12722,7 +13874,11 @@
       <c r="L290" t="b">
         <v>0</v>
       </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="N290" t="inlineStr">
+        <is>
+          <t>data/receipts/d2f0493e788d4a4794cfb00e8b699e0e.json</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -12768,7 +13924,11 @@
       <c r="L291" t="b">
         <v>0</v>
       </c>
-      <c r="N291" t="inlineStr"/>
+      <c r="N291" t="inlineStr">
+        <is>
+          <t>data/receipts/6e1a9d00ce0b420fb154c3e719a4dc34.json</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -12807,7 +13967,11 @@
       <c r="L292" t="b">
         <v>0</v>
       </c>
-      <c r="N292" t="inlineStr"/>
+      <c r="N292" t="inlineStr">
+        <is>
+          <t>data/receipts/bb8f942bc4174faf96f1abe6777e2c25.json</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -12850,7 +14014,11 @@
       <c r="L293" t="b">
         <v>0</v>
       </c>
-      <c r="N293" t="inlineStr"/>
+      <c r="N293" t="inlineStr">
+        <is>
+          <t>data/receipts/cb4596caf2ed4bcfbf92943d11896eef.json</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -12891,7 +14059,11 @@
       <c r="L294" t="b">
         <v>0</v>
       </c>
-      <c r="N294" t="inlineStr"/>
+      <c r="N294" t="inlineStr">
+        <is>
+          <t>data/receipts/322c10d65c0f49948352141e9e6d428a.json</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -12936,7 +14108,11 @@
       <c r="L295" t="b">
         <v>0</v>
       </c>
-      <c r="N295" t="inlineStr"/>
+      <c r="N295" t="inlineStr">
+        <is>
+          <t>data/receipts/8a17dd60b77d4b63b36f682f8822dba6.json</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -12981,7 +14157,11 @@
       <c r="L296" t="b">
         <v>0</v>
       </c>
-      <c r="N296" t="inlineStr"/>
+      <c r="N296" t="inlineStr">
+        <is>
+          <t>data/receipts/b47215b88a004f25add5005cb560efaa.json</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -13026,7 +14206,11 @@
       <c r="L297" t="b">
         <v>0</v>
       </c>
-      <c r="N297" t="inlineStr"/>
+      <c r="N297" t="inlineStr">
+        <is>
+          <t>data/receipts/b4a5edca6f6145b0897ec532ce8edd10.json</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -13069,7 +14253,11 @@
       <c r="L298" t="b">
         <v>0</v>
       </c>
-      <c r="N298" t="inlineStr"/>
+      <c r="N298" t="inlineStr">
+        <is>
+          <t>data/receipts/5bcd9145941c4f9a9fcdfbdedc85b557.json</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="B299" t="inlineStr">
@@ -13116,7 +14304,11 @@
       <c r="L299" t="b">
         <v>0</v>
       </c>
-      <c r="N299" t="inlineStr"/>
+      <c r="N299" t="inlineStr">
+        <is>
+          <t>data/receipts/c0ef0de703f44096a2e0cc52c113e3ca.json</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="B300" t="inlineStr">
@@ -13175,7 +14367,11 @@
       <c r="L300" t="b">
         <v>0</v>
       </c>
-      <c r="N300" t="inlineStr"/>
+      <c r="N300" t="inlineStr">
+        <is>
+          <t>data/receipts/0663388ade5444d0b13bd92dffac440f.json</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="B301" t="inlineStr">
@@ -13222,7 +14418,11 @@
       <c r="L301" t="b">
         <v>0</v>
       </c>
-      <c r="N301" t="inlineStr"/>
+      <c r="N301" t="inlineStr">
+        <is>
+          <t>data/receipts/2cc6c282df0245ec97dcc778b3ad3e06.json</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="B302" t="inlineStr">
@@ -13269,7 +14469,11 @@
       <c r="L302" t="b">
         <v>0</v>
       </c>
-      <c r="N302" t="inlineStr"/>
+      <c r="N302" t="inlineStr">
+        <is>
+          <t>data/receipts/7c72984313e14f3aaa1d33bcfffa3486.json</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="B303" t="inlineStr">
@@ -13316,7 +14520,11 @@
       <c r="L303" t="b">
         <v>0</v>
       </c>
-      <c r="N303" t="inlineStr"/>
+      <c r="N303" t="inlineStr">
+        <is>
+          <t>data/receipts/60f336adeb8a47f79c8d2af0285b28e6.json</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="B304" t="inlineStr">
@@ -13363,7 +14571,11 @@
       <c r="L304" t="b">
         <v>0</v>
       </c>
-      <c r="N304" t="inlineStr"/>
+      <c r="N304" t="inlineStr">
+        <is>
+          <t>data/receipts/a6860f2cba964ec381b73081daba474c.json</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="B305" t="inlineStr">
@@ -13393,7 +14605,7 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>&lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt; &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt;.&lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt;@&lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt;.&lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt;?</t>
+          <t>[[[ID_NUMBER]]] [[[ID_NUMBER]]].[[[ID_NUMBER]]]@[[[ID_NUMBER]]].[[[ID_NUMBER]]]?</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
@@ -13410,7 +14622,11 @@
       <c r="L305" t="b">
         <v>0</v>
       </c>
-      <c r="N305" t="inlineStr"/>
+      <c r="N305" t="inlineStr">
+        <is>
+          <t>data/receipts/c65d6e4989b2428090ef43df8f28373d.json</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="B306" t="inlineStr">
@@ -13469,7 +14685,11 @@
       <c r="L306" t="b">
         <v>0</v>
       </c>
-      <c r="N306" t="inlineStr"/>
+      <c r="N306" t="inlineStr">
+        <is>
+          <t>data/receipts/fb4d77cb23d84264b6953d4d9527e5b4.json</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="B307" t="inlineStr">
@@ -13528,7 +14748,11 @@
       <c r="L307" t="b">
         <v>0</v>
       </c>
-      <c r="N307" t="inlineStr"/>
+      <c r="N307" t="inlineStr">
+        <is>
+          <t>data/receipts/c2dda169eaaf49baa4be3288b2ce194f.json</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="B308" t="inlineStr">
@@ -13575,7 +14799,11 @@
       <c r="L308" t="b">
         <v>0</v>
       </c>
-      <c r="N308" t="inlineStr"/>
+      <c r="N308" t="inlineStr">
+        <is>
+          <t>data/receipts/f0e409a44e984493aef77b4eeb054946.json</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="B309" t="inlineStr">
@@ -13605,7 +14833,7 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>&lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt; &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt; &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt; &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt;?</t>
+          <t>[[[ID_NUMBER]]] [[[ID_NUMBER]]] [[[ID_NUMBER]]] [[[ID_NUMBER]]]?</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
@@ -13622,7 +14850,11 @@
       <c r="L309" t="b">
         <v>0</v>
       </c>
-      <c r="N309" t="inlineStr"/>
+      <c r="N309" t="inlineStr">
+        <is>
+          <t>data/receipts/a3582c0dee514c188ab8171de2928964.json</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="B310" t="inlineStr">
@@ -13669,7 +14901,11 @@
       <c r="L310" t="b">
         <v>0</v>
       </c>
-      <c r="N310" t="inlineStr"/>
+      <c r="N310" t="inlineStr">
+        <is>
+          <t>data/receipts/0816dcf48bb34cf6af847b9fba27729c.json</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="B311" t="inlineStr">
@@ -13716,7 +14952,11 @@
       <c r="L311" t="b">
         <v>0</v>
       </c>
-      <c r="N311" t="inlineStr"/>
+      <c r="N311" t="inlineStr">
+        <is>
+          <t>data/receipts/ebce8ef08c254f9db71625b8324e9986.json</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="B312" t="inlineStr">
@@ -13763,7 +15003,11 @@
       <c r="L312" t="b">
         <v>0</v>
       </c>
-      <c r="N312" t="inlineStr"/>
+      <c r="N312" t="inlineStr">
+        <is>
+          <t>data/receipts/8b789936f0c349fb96cf7c43a0f6665f.json</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="B313" t="inlineStr">
@@ -13810,7 +15054,11 @@
       <c r="L313" t="b">
         <v>0</v>
       </c>
-      <c r="N313" t="inlineStr"/>
+      <c r="N313" t="inlineStr">
+        <is>
+          <t>data/receipts/05544435948c4307a0e27ca0f3d4f446.json</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="B314" t="inlineStr">
@@ -13857,7 +15105,11 @@
       <c r="L314" t="b">
         <v>0</v>
       </c>
-      <c r="N314" t="inlineStr"/>
+      <c r="N314" t="inlineStr">
+        <is>
+          <t>data/receipts/a23c78dbf52e4381ac94780c27ddb7bf.json</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="B315" t="inlineStr">
@@ -13904,7 +15156,11 @@
       <c r="L315" t="b">
         <v>0</v>
       </c>
-      <c r="N315" t="inlineStr"/>
+      <c r="N315" t="inlineStr">
+        <is>
+          <t>data/receipts/070737e1a59045f4a738553e57fcc2d8.json</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="B316" t="inlineStr">
@@ -13951,7 +15207,11 @@
       <c r="L316" t="b">
         <v>0</v>
       </c>
-      <c r="N316" t="inlineStr"/>
+      <c r="N316" t="inlineStr">
+        <is>
+          <t>data/receipts/74c06595b9054daa8a4d2e6110e7c07a.json</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="B317" t="inlineStr">
@@ -13998,7 +15258,11 @@
       <c r="L317" t="b">
         <v>0</v>
       </c>
-      <c r="N317" t="inlineStr"/>
+      <c r="N317" t="inlineStr">
+        <is>
+          <t>data/receipts/bbdd56ac09ad4604b0914bc49078016f.json</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="B318" t="inlineStr">
@@ -14045,7 +15309,11 @@
       <c r="L318" t="b">
         <v>0</v>
       </c>
-      <c r="N318" t="inlineStr"/>
+      <c r="N318" t="inlineStr">
+        <is>
+          <t>data/receipts/e83fa86c27c247fa8705a1ef50b48691.json</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -14092,7 +15360,11 @@
       <c r="L319" t="b">
         <v>0</v>
       </c>
-      <c r="N319" t="inlineStr"/>
+      <c r="N319" t="inlineStr">
+        <is>
+          <t>data/receipts/162ef20ee4e74d7bb25a5c5e68182198.json</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -14131,7 +15403,11 @@
       <c r="L320" t="b">
         <v>0</v>
       </c>
-      <c r="N320" t="inlineStr"/>
+      <c r="N320" t="inlineStr">
+        <is>
+          <t>data/receipts/0310594fd00e40cdb0b7c8155c250478.json</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -14180,7 +15456,11 @@
       <c r="L321" t="b">
         <v>0</v>
       </c>
-      <c r="N321" t="inlineStr"/>
+      <c r="N321" t="inlineStr">
+        <is>
+          <t>data/receipts/89dac9410b50419b864faac3083de888.json</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -14226,7 +15506,11 @@
       <c r="L322" t="b">
         <v>0</v>
       </c>
-      <c r="N322" t="inlineStr"/>
+      <c r="N322" t="inlineStr">
+        <is>
+          <t>data/receipts/2c1d030838d94f2ea2f9ab59b8ae13f7.json</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -14270,7 +15554,11 @@
       <c r="L323" t="b">
         <v>0</v>
       </c>
-      <c r="N323" t="inlineStr"/>
+      <c r="N323" t="inlineStr">
+        <is>
+          <t>data/receipts/341535a56fd44b0e9af5041da8e56db8.json</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -14316,7 +15604,11 @@
       <c r="L324" t="b">
         <v>0</v>
       </c>
-      <c r="N324" t="inlineStr"/>
+      <c r="N324" t="inlineStr">
+        <is>
+          <t>data/receipts/061526a6a4fa4076860d2d51d66e3417.json</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -14360,7 +15652,11 @@
       <c r="L325" t="b">
         <v>0</v>
       </c>
-      <c r="N325" t="inlineStr"/>
+      <c r="N325" t="inlineStr">
+        <is>
+          <t>data/receipts/0f3bbef0fc6944b9b98274d289ebf144.json</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -14399,7 +15695,11 @@
       <c r="L326" t="b">
         <v>0</v>
       </c>
-      <c r="N326" t="inlineStr"/>
+      <c r="N326" t="inlineStr">
+        <is>
+          <t>data/receipts/44a221f0403440ddbf395078f7bed755.json</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -14444,7 +15744,11 @@
       <c r="L327" t="b">
         <v>0</v>
       </c>
-      <c r="N327" t="inlineStr"/>
+      <c r="N327" t="inlineStr">
+        <is>
+          <t>data/receipts/1f860eb0477246979a933d521a1d5755.json</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -14487,7 +15791,11 @@
       <c r="L328" t="b">
         <v>0</v>
       </c>
-      <c r="N328" t="inlineStr"/>
+      <c r="N328" t="inlineStr">
+        <is>
+          <t>data/receipts/beddb7b7333e425b8014fe8ec5047715.json</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -14526,7 +15834,11 @@
       <c r="L329" t="b">
         <v>0</v>
       </c>
-      <c r="N329" t="inlineStr"/>
+      <c r="N329" t="inlineStr">
+        <is>
+          <t>data/receipts/69dc125c38fe4db08668d1e62f8c5c5f.json</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -14573,7 +15885,11 @@
       <c r="L330" t="b">
         <v>0</v>
       </c>
-      <c r="N330" t="inlineStr"/>
+      <c r="N330" t="inlineStr">
+        <is>
+          <t>data/receipts/1ad54929a24a47f8824ad22291f5e75a.json</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -14616,7 +15932,11 @@
       <c r="L331" t="b">
         <v>0</v>
       </c>
-      <c r="N331" t="inlineStr"/>
+      <c r="N331" t="inlineStr">
+        <is>
+          <t>data/receipts/54aa4d4a27fc4931b7f8c00797b23551.json</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -14661,7 +15981,11 @@
       <c r="L332" t="b">
         <v>0</v>
       </c>
-      <c r="N332" t="inlineStr"/>
+      <c r="N332" t="inlineStr">
+        <is>
+          <t>data/receipts/58a59d4dfb9f4c35885271df87832948.json</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -14700,7 +16024,11 @@
       <c r="L333" t="b">
         <v>0</v>
       </c>
-      <c r="N333" t="inlineStr"/>
+      <c r="N333" t="inlineStr">
+        <is>
+          <t>data/receipts/4756214fb49643e39ff0a7bda30aa960.json</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -14747,7 +16075,11 @@
       <c r="L334" t="b">
         <v>0</v>
       </c>
-      <c r="N334" t="inlineStr"/>
+      <c r="N334" t="inlineStr">
+        <is>
+          <t>data/receipts/b0363a549d2d42d1860656b8caf521ae.json</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -14786,7 +16118,11 @@
       <c r="L335" t="b">
         <v>0</v>
       </c>
-      <c r="N335" t="inlineStr"/>
+      <c r="N335" t="inlineStr">
+        <is>
+          <t>data/receipts/216b7380ce8c4ce6be25f3e2e18e681b.json</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -14829,7 +16165,11 @@
       <c r="L336" t="b">
         <v>0</v>
       </c>
-      <c r="N336" t="inlineStr"/>
+      <c r="N336" t="inlineStr">
+        <is>
+          <t>data/receipts/bfc46881f46a49ac9378abb148b4c406.json</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -14870,7 +16210,11 @@
       <c r="L337" t="b">
         <v>0</v>
       </c>
-      <c r="N337" t="inlineStr"/>
+      <c r="N337" t="inlineStr">
+        <is>
+          <t>data/receipts/f28df453371f4b7987ca96b30d84d173.json</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -14913,7 +16257,11 @@
       <c r="L338" t="b">
         <v>0</v>
       </c>
-      <c r="N338" t="inlineStr"/>
+      <c r="N338" t="inlineStr">
+        <is>
+          <t>data/receipts/5023eca64ead4eb0bef62755cf850137.json</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="B339" t="inlineStr">
@@ -14956,7 +16304,11 @@
       <c r="L339" t="b">
         <v>0</v>
       </c>
-      <c r="N339" t="inlineStr"/>
+      <c r="N339" t="inlineStr">
+        <is>
+          <t>data/receipts/e6fd3fe15a1c4fcabe117f4abdb3dbf4.json</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="B340" t="inlineStr">
@@ -14999,7 +16351,11 @@
       <c r="L340" t="b">
         <v>0</v>
       </c>
-      <c r="N340" t="inlineStr"/>
+      <c r="N340" t="inlineStr">
+        <is>
+          <t>data/receipts/a8883397196b40ebbe06445c36e80e23.json</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="B341" t="inlineStr">
@@ -15042,7 +16398,11 @@
       <c r="L341" t="b">
         <v>0</v>
       </c>
-      <c r="N341" t="inlineStr"/>
+      <c r="N341" t="inlineStr">
+        <is>
+          <t>data/receipts/49cd5f58c03040529a9e15a15bd85171.json</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="B342" t="inlineStr">
@@ -15085,7 +16445,11 @@
       <c r="L342" t="b">
         <v>0</v>
       </c>
-      <c r="N342" t="inlineStr"/>
+      <c r="N342" t="inlineStr">
+        <is>
+          <t>data/receipts/892831b3a89c4766b0c3d1c4ccca81c9.json</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="B343" t="inlineStr">
@@ -15128,7 +16492,11 @@
       <c r="L343" t="b">
         <v>0</v>
       </c>
-      <c r="N343" t="inlineStr"/>
+      <c r="N343" t="inlineStr">
+        <is>
+          <t>data/receipts/b83920adf77349238c41f650030048a4.json</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="B344" t="inlineStr">
@@ -15171,7 +16539,11 @@
       <c r="L344" t="b">
         <v>0</v>
       </c>
-      <c r="N344" t="inlineStr"/>
+      <c r="N344" t="inlineStr">
+        <is>
+          <t>data/receipts/162d2d743db24214bfc87f16e663cd04.json</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="B345" t="inlineStr">
@@ -15214,7 +16586,11 @@
       <c r="L345" t="b">
         <v>0</v>
       </c>
-      <c r="N345" t="inlineStr"/>
+      <c r="N345" t="inlineStr">
+        <is>
+          <t>data/receipts/f9d74c13cc6f4b738e504de5f57be486.json</t>
+        </is>
+      </c>
     </row>
     <row r="346">
       <c r="B346" t="inlineStr">
@@ -15257,7 +16633,11 @@
       <c r="L346" t="b">
         <v>0</v>
       </c>
-      <c r="N346" t="inlineStr"/>
+      <c r="N346" t="inlineStr">
+        <is>
+          <t>data/receipts/b8cda944786c4829b76677649264c2e3.json</t>
+        </is>
+      </c>
     </row>
     <row r="347">
       <c r="B347" t="inlineStr">
@@ -15300,7 +16680,11 @@
       <c r="L347" t="b">
         <v>0</v>
       </c>
-      <c r="N347" t="inlineStr"/>
+      <c r="N347" t="inlineStr">
+        <is>
+          <t>data/receipts/c10075a05b51433090e3fc6db1c53acd.json</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="B348" t="inlineStr">
@@ -15343,7 +16727,11 @@
       <c r="L348" t="b">
         <v>0</v>
       </c>
-      <c r="N348" t="inlineStr"/>
+      <c r="N348" t="inlineStr">
+        <is>
+          <t>data/receipts/d15066e2b74c4787b775aba9f5d8eccb.json</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="B349" t="inlineStr">
@@ -15386,7 +16774,11 @@
       <c r="L349" t="b">
         <v>0</v>
       </c>
-      <c r="N349" t="inlineStr"/>
+      <c r="N349" t="inlineStr">
+        <is>
+          <t>data/receipts/826becc30a3a4ce38d6bfae3788fe0c5.json</t>
+        </is>
+      </c>
     </row>
     <row r="350">
       <c r="B350" t="inlineStr">
@@ -15429,7 +16821,11 @@
       <c r="L350" t="b">
         <v>0</v>
       </c>
-      <c r="N350" t="inlineStr"/>
+      <c r="N350" t="inlineStr">
+        <is>
+          <t>data/receipts/ce4fe94187a14cbba5744ab519db116d.json</t>
+        </is>
+      </c>
     </row>
     <row r="351">
       <c r="B351" t="inlineStr">
@@ -15472,7 +16868,11 @@
       <c r="L351" t="b">
         <v>0</v>
       </c>
-      <c r="N351" t="inlineStr"/>
+      <c r="N351" t="inlineStr">
+        <is>
+          <t>data/receipts/e0f3d71b05ce4d1e9e8fc23846ceb1b1.json</t>
+        </is>
+      </c>
     </row>
     <row r="352">
       <c r="B352" t="inlineStr">
@@ -15502,7 +16902,7 @@
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>&lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt;’s &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt; &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt;’s &lt;&lt;&lt;ID_NUMBER&gt;&gt;&gt;?</t>
+          <t>[[[ID_NUMBER]]]’s [[[ID_NUMBER]]] [[[ID_NUMBER]]]’s [[[ID_NUMBER]]]?</t>
         </is>
       </c>
       <c r="I352" t="inlineStr"/>
@@ -15515,7 +16915,11 @@
       <c r="L352" t="b">
         <v>0</v>
       </c>
-      <c r="N352" t="inlineStr"/>
+      <c r="N352" t="inlineStr">
+        <is>
+          <t>data/receipts/de5bc860748d4fc6b28fabe4c0bf7d57.json</t>
+        </is>
+      </c>
     </row>
     <row r="353">
       <c r="B353" t="inlineStr">
@@ -15558,7 +16962,11 @@
       <c r="L353" t="b">
         <v>0</v>
       </c>
-      <c r="N353" t="inlineStr"/>
+      <c r="N353" t="inlineStr">
+        <is>
+          <t>data/receipts/4da2fb5e67454baca57351acef35ad30.json</t>
+        </is>
+      </c>
     </row>
     <row r="354">
       <c r="B354" t="inlineStr">
@@ -15601,7 +17009,11 @@
       <c r="L354" t="b">
         <v>0</v>
       </c>
-      <c r="N354" t="inlineStr"/>
+      <c r="N354" t="inlineStr">
+        <is>
+          <t>data/receipts/921792ba0a244cf78e6458736cb9f356.json</t>
+        </is>
+      </c>
     </row>
     <row r="355">
       <c r="B355" t="inlineStr">
@@ -15644,7 +17056,11 @@
       <c r="L355" t="b">
         <v>0</v>
       </c>
-      <c r="N355" t="inlineStr"/>
+      <c r="N355" t="inlineStr">
+        <is>
+          <t>data/receipts/8fd934cf04a14ffda1f65c765f7acb5a.json</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="B356" t="inlineStr">
@@ -15687,7 +17103,11 @@
       <c r="L356" t="b">
         <v>0</v>
       </c>
-      <c r="N356" t="inlineStr"/>
+      <c r="N356" t="inlineStr">
+        <is>
+          <t>data/receipts/2aec933e1f7e483283e7a5847331ba36.json</t>
+        </is>
+      </c>
     </row>
     <row r="357">
       <c r="B357" t="inlineStr">
@@ -15730,7 +17150,11 @@
       <c r="L357" t="b">
         <v>0</v>
       </c>
-      <c r="N357" t="inlineStr"/>
+      <c r="N357" t="inlineStr">
+        <is>
+          <t>data/receipts/b14236d2eb494647a1026effdab2b4f8.json</t>
+        </is>
+      </c>
     </row>
     <row r="358">
       <c r="B358" t="inlineStr">
@@ -15773,7 +17197,11 @@
       <c r="L358" t="b">
         <v>0</v>
       </c>
-      <c r="N358" t="inlineStr"/>
+      <c r="N358" t="inlineStr">
+        <is>
+          <t>data/receipts/8762e97ad69e4772b0905136cf46f1f7.json</t>
+        </is>
+      </c>
     </row>
     <row r="359">
       <c r="B359" t="inlineStr">
@@ -15816,7 +17244,11 @@
       <c r="L359" t="b">
         <v>0</v>
       </c>
-      <c r="N359" t="inlineStr"/>
+      <c r="N359" t="inlineStr">
+        <is>
+          <t>data/receipts/d861a61c8bbc4a47b9b2be8149bc9146.json</t>
+        </is>
+      </c>
     </row>
     <row r="360">
       <c r="B360" t="inlineStr">
@@ -15859,7 +17291,11 @@
       <c r="L360" t="b">
         <v>0</v>
       </c>
-      <c r="N360" t="inlineStr"/>
+      <c r="N360" t="inlineStr">
+        <is>
+          <t>data/receipts/1dee6272b253467d905dcc6a250d862c.json</t>
+        </is>
+      </c>
     </row>
     <row r="361">
       <c r="B361" t="inlineStr">
@@ -15902,7 +17338,11 @@
       <c r="L361" t="b">
         <v>0</v>
       </c>
-      <c r="N361" t="inlineStr"/>
+      <c r="N361" t="inlineStr">
+        <is>
+          <t>data/receipts/2adf8422025d40e6a9741cd2a8034127.json</t>
+        </is>
+      </c>
     </row>
     <row r="362">
       <c r="B362" t="inlineStr">
@@ -15945,7 +17385,11 @@
       <c r="L362" t="b">
         <v>0</v>
       </c>
-      <c r="N362" t="inlineStr"/>
+      <c r="N362" t="inlineStr">
+        <is>
+          <t>data/receipts/3763541694214c5dab38311e69ec9aae.json</t>
+        </is>
+      </c>
     </row>
     <row r="363">
       <c r="B363" t="inlineStr">
@@ -15988,7 +17432,11 @@
       <c r="L363" t="b">
         <v>0</v>
       </c>
-      <c r="N363" t="inlineStr"/>
+      <c r="N363" t="inlineStr">
+        <is>
+          <t>data/receipts/1303500833d84f7f8871cdffafae7ee4.json</t>
+        </is>
+      </c>
     </row>
     <row r="364">
       <c r="B364" t="inlineStr">
@@ -16031,7 +17479,11 @@
       <c r="L364" t="b">
         <v>0</v>
       </c>
-      <c r="N364" t="inlineStr"/>
+      <c r="N364" t="inlineStr">
+        <is>
+          <t>data/receipts/2aaebe71475d4130a730dc455e47b8fb.json</t>
+        </is>
+      </c>
     </row>
     <row r="365">
       <c r="B365" t="inlineStr">
@@ -16074,7 +17526,11 @@
       <c r="L365" t="b">
         <v>0</v>
       </c>
-      <c r="N365" t="inlineStr"/>
+      <c r="N365" t="inlineStr">
+        <is>
+          <t>data/receipts/12102b818c9040ebbeac08cc96ca3d47.json</t>
+        </is>
+      </c>
     </row>
     <row r="366">
       <c r="B366" t="inlineStr">
@@ -16117,7 +17573,11 @@
       <c r="L366" t="b">
         <v>0</v>
       </c>
-      <c r="N366" t="inlineStr"/>
+      <c r="N366" t="inlineStr">
+        <is>
+          <t>data/receipts/c133108669084e0ab03ef69f7470f3e7.json</t>
+        </is>
+      </c>
     </row>
     <row r="367">
       <c r="B367" t="inlineStr">
@@ -16160,7 +17620,11 @@
       <c r="L367" t="b">
         <v>0</v>
       </c>
-      <c r="N367" t="inlineStr"/>
+      <c r="N367" t="inlineStr">
+        <is>
+          <t>data/receipts/df5193e078624dcc930612d8163711c1.json</t>
+        </is>
+      </c>
     </row>
     <row r="368">
       <c r="B368" t="inlineStr">
@@ -16203,7 +17667,11 @@
       <c r="L368" t="b">
         <v>0</v>
       </c>
-      <c r="N368" t="inlineStr"/>
+      <c r="N368" t="inlineStr">
+        <is>
+          <t>data/receipts/8906d42004a6473f8a1b6ccd11d2f6ca.json</t>
+        </is>
+      </c>
     </row>
     <row r="369">
       <c r="B369" t="inlineStr">
@@ -16246,7 +17714,11 @@
       <c r="L369" t="b">
         <v>0</v>
       </c>
-      <c r="N369" t="inlineStr"/>
+      <c r="N369" t="inlineStr">
+        <is>
+          <t>data/receipts/db5e49ec43904ef2a22109063323d5ae.json</t>
+        </is>
+      </c>
     </row>
     <row r="370">
       <c r="B370" t="inlineStr">
@@ -16289,7 +17761,11 @@
       <c r="L370" t="b">
         <v>0</v>
       </c>
-      <c r="N370" t="inlineStr"/>
+      <c r="N370" t="inlineStr">
+        <is>
+          <t>data/receipts/26de69508ece4d4b93f071a488850067.json</t>
+        </is>
+      </c>
     </row>
     <row r="371">
       <c r="B371" t="inlineStr">
@@ -16332,7 +17808,11 @@
       <c r="L371" t="b">
         <v>0</v>
       </c>
-      <c r="N371" t="inlineStr"/>
+      <c r="N371" t="inlineStr">
+        <is>
+          <t>data/receipts/fa1c738a234349728e4506bbc87916f2.json</t>
+        </is>
+      </c>
     </row>
     <row r="372">
       <c r="B372" t="inlineStr">
@@ -16375,7 +17855,11 @@
       <c r="L372" t="b">
         <v>0</v>
       </c>
-      <c r="N372" t="inlineStr"/>
+      <c r="N372" t="inlineStr">
+        <is>
+          <t>data/receipts/5ecc169addcc4f63942023382f06af5b.json</t>
+        </is>
+      </c>
     </row>
     <row r="373">
       <c r="B373" t="inlineStr">
@@ -16418,7 +17902,11 @@
       <c r="L373" t="b">
         <v>0</v>
       </c>
-      <c r="N373" t="inlineStr"/>
+      <c r="N373" t="inlineStr">
+        <is>
+          <t>data/receipts/9dface17dbbc49dc95a67046420a1791.json</t>
+        </is>
+      </c>
     </row>
     <row r="374">
       <c r="B374" t="inlineStr">
@@ -16461,7 +17949,11 @@
       <c r="L374" t="b">
         <v>0</v>
       </c>
-      <c r="N374" t="inlineStr"/>
+      <c r="N374" t="inlineStr">
+        <is>
+          <t>data/receipts/945cec1125de424c80eb04b28f2bc5de.json</t>
+        </is>
+      </c>
     </row>
     <row r="375">
       <c r="B375" t="inlineStr">
@@ -16504,7 +17996,11 @@
       <c r="L375" t="b">
         <v>0</v>
       </c>
-      <c r="N375" t="inlineStr"/>
+      <c r="N375" t="inlineStr">
+        <is>
+          <t>data/receipts/a192046d462e43aea1512f792659eef8.json</t>
+        </is>
+      </c>
     </row>
     <row r="376">
       <c r="B376" t="inlineStr">
@@ -16547,7 +18043,11 @@
       <c r="L376" t="b">
         <v>0</v>
       </c>
-      <c r="N376" t="inlineStr"/>
+      <c r="N376" t="inlineStr">
+        <is>
+          <t>data/receipts/d8f71904ad60406e88d64fdd2e1b74ed.json</t>
+        </is>
+      </c>
     </row>
     <row r="377">
       <c r="B377" t="inlineStr">
@@ -16590,7 +18090,11 @@
       <c r="L377" t="b">
         <v>0</v>
       </c>
-      <c r="N377" t="inlineStr"/>
+      <c r="N377" t="inlineStr">
+        <is>
+          <t>data/receipts/892de748d14a4e94a248bf062948b60a.json</t>
+        </is>
+      </c>
     </row>
     <row r="378">
       <c r="B378" t="inlineStr">
@@ -16633,7 +18137,11 @@
       <c r="L378" t="b">
         <v>0</v>
       </c>
-      <c r="N378" t="inlineStr"/>
+      <c r="N378" t="inlineStr">
+        <is>
+          <t>data/receipts/c3dd0d24518247e4a153adeee2f9687b.json</t>
+        </is>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -16676,7 +18184,11 @@
       <c r="L379" t="b">
         <v>0</v>
       </c>
-      <c r="N379" t="inlineStr"/>
+      <c r="N379" t="inlineStr">
+        <is>
+          <t>data/receipts/0217a2f84dd7451d8f56e7fd8799952c.json</t>
+        </is>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -16715,7 +18227,11 @@
       <c r="L380" t="b">
         <v>0</v>
       </c>
-      <c r="N380" t="inlineStr"/>
+      <c r="N380" t="inlineStr">
+        <is>
+          <t>data/receipts/fd2cd44b27444445a8cd92b174a71cf3.json</t>
+        </is>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -16754,7 +18270,11 @@
       <c r="L381" t="b">
         <v>0</v>
       </c>
-      <c r="N381" t="inlineStr"/>
+      <c r="N381" t="inlineStr">
+        <is>
+          <t>data/receipts/5750416be01f482990e714bc5d121667.json</t>
+        </is>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -16797,7 +18317,11 @@
       <c r="L382" t="b">
         <v>0</v>
       </c>
-      <c r="N382" t="inlineStr"/>
+      <c r="N382" t="inlineStr">
+        <is>
+          <t>data/receipts/757b3191eddc424ebb724d74c8b370d3.json</t>
+        </is>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -16840,7 +18364,11 @@
       <c r="L383" t="b">
         <v>0</v>
       </c>
-      <c r="N383" t="inlineStr"/>
+      <c r="N383" t="inlineStr">
+        <is>
+          <t>data/receipts/dd76e1988b0441eda4c794c92d6de1dd.json</t>
+        </is>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -16887,7 +18415,11 @@
       <c r="L384" t="b">
         <v>0</v>
       </c>
-      <c r="N384" t="inlineStr"/>
+      <c r="N384" t="inlineStr">
+        <is>
+          <t>data/receipts/8b39735f63d0468c8b6e168c0f8bf980.json</t>
+        </is>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -16931,7 +18463,11 @@
       <c r="L385" t="b">
         <v>0</v>
       </c>
-      <c r="N385" t="inlineStr"/>
+      <c r="N385" t="inlineStr">
+        <is>
+          <t>data/receipts/c1b46b141f8d40548435c924b7477edd.json</t>
+        </is>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -16979,7 +18515,11 @@
       <c r="L386" t="b">
         <v>0</v>
       </c>
-      <c r="N386" t="inlineStr"/>
+      <c r="N386" t="inlineStr">
+        <is>
+          <t>data/receipts/aebdd3ad0fb141668f2286f836ccfa20.json</t>
+        </is>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -17025,7 +18565,11 @@
       <c r="L387" t="b">
         <v>0</v>
       </c>
-      <c r="N387" t="inlineStr"/>
+      <c r="N387" t="inlineStr">
+        <is>
+          <t>data/receipts/f0470340c9f64cacaf47a24dc9ebccab.json</t>
+        </is>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -17070,7 +18614,11 @@
       <c r="L388" t="b">
         <v>0</v>
       </c>
-      <c r="N388" t="inlineStr"/>
+      <c r="N388" t="inlineStr">
+        <is>
+          <t>data/receipts/321111490ab146a98db75b78f9f0529f.json</t>
+        </is>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -17117,7 +18665,11 @@
       <c r="L389" t="b">
         <v>0</v>
       </c>
-      <c r="N389" t="inlineStr"/>
+      <c r="N389" t="inlineStr">
+        <is>
+          <t>data/receipts/45dc9c78d07f40cba82b8d80ca9c22ed.json</t>
+        </is>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -17164,7 +18716,11 @@
       <c r="L390" t="b">
         <v>0</v>
       </c>
-      <c r="N390" t="inlineStr"/>
+      <c r="N390" t="inlineStr">
+        <is>
+          <t>data/receipts/d5c4bc643c784a7db5b13ea84c724cc2.json</t>
+        </is>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -17205,7 +18761,11 @@
       <c r="L391" t="b">
         <v>0</v>
       </c>
-      <c r="N391" t="inlineStr"/>
+      <c r="N391" t="inlineStr">
+        <is>
+          <t>data/receipts/6810e5c942d3443fa608d0f213311075.json</t>
+        </is>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -17250,7 +18810,11 @@
       <c r="L392" t="b">
         <v>0</v>
       </c>
-      <c r="N392" t="inlineStr"/>
+      <c r="N392" t="inlineStr">
+        <is>
+          <t>data/receipts/4c4357d0fe9b494b84c77c29838a5cb1.json</t>
+        </is>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -17293,7 +18857,11 @@
       <c r="L393" t="b">
         <v>0</v>
       </c>
-      <c r="N393" t="inlineStr"/>
+      <c r="N393" t="inlineStr">
+        <is>
+          <t>data/receipts/ffc0dcb3f82c4ca78363a150d287d9a7.json</t>
+        </is>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -17338,7 +18906,11 @@
       <c r="L394" t="b">
         <v>0</v>
       </c>
-      <c r="N394" t="inlineStr"/>
+      <c r="N394" t="inlineStr">
+        <is>
+          <t>data/receipts/bab90163cd6941f38e4799338f1ab75e.json</t>
+        </is>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -17379,7 +18951,11 @@
       <c r="L395" t="b">
         <v>0</v>
       </c>
-      <c r="N395" t="inlineStr"/>
+      <c r="N395" t="inlineStr">
+        <is>
+          <t>data/receipts/f6700140f2344d79830e13f52e842f07.json</t>
+        </is>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -17420,7 +18996,11 @@
       <c r="L396" t="b">
         <v>0</v>
       </c>
-      <c r="N396" t="inlineStr"/>
+      <c r="N396" t="inlineStr">
+        <is>
+          <t>data/receipts/472d5e45219748d3b1596b0e37492592.json</t>
+        </is>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -17461,7 +19041,11 @@
       <c r="L397" t="b">
         <v>0</v>
       </c>
-      <c r="N397" t="inlineStr"/>
+      <c r="N397" t="inlineStr">
+        <is>
+          <t>data/receipts/9d22b069b21146e6af764ebd24eafecd.json</t>
+        </is>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -17502,7 +19086,11 @@
       <c r="L398" t="b">
         <v>0</v>
       </c>
-      <c r="N398" t="inlineStr"/>
+      <c r="N398" t="inlineStr">
+        <is>
+          <t>data/receipts/faaffd1d628e433db8a92f784f37c601.json</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
